--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
@@ -1041,13 +1041,13 @@
     <t>零捌陆</t>
   </si>
   <si>
-    <t>南贤</t>
+    <t>无名老头</t>
   </si>
   <si>
     <t>智者</t>
   </si>
   <si>
-    <t>北丑</t>
+    <t>怪人</t>
   </si>
   <si>
     <t>戏子</t>
@@ -1687,12 +1687,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1995,10 +2001,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2007,16 +2013,16 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2034,10 +2040,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2061,28 +2067,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2091,19 +2097,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2115,41 +2118,44 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2160,6 +2166,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2570,8 +2577,8 @@
   <sheetPr/>
   <dimension ref="A1:AP323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2644,7 +2651,7 @@
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -2659,28 +2666,28 @@
       <c r="AE2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AO2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2802,27 +2809,27 @@
       <c r="AM3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AO3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AP3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2930,10 +2937,10 @@
       <c r="AM4" s="3">
         <v>0</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AN4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AO4" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2947,7 +2954,7 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3055,10 +3062,10 @@
       <c r="AM5" s="3">
         <v>0</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AN5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AO5" s="10" t="s">
         <v>82</v>
       </c>
       <c r="AP5">
@@ -3183,10 +3190,10 @@
       <c r="AM6" s="3">
         <v>0</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AO6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AP6">
@@ -3311,10 +3318,10 @@
       <c r="AM7" s="3">
         <v>0</v>
       </c>
-      <c r="AN7" s="9" t="s">
+      <c r="AN7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AO7" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3436,10 +3443,10 @@
       <c r="AM8" s="3">
         <v>0</v>
       </c>
-      <c r="AN8" s="9" t="s">
+      <c r="AN8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AO8" s="9" t="s">
+      <c r="AO8" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3561,10 +3568,10 @@
       <c r="AM9" s="3">
         <v>0</v>
       </c>
-      <c r="AN9" s="9" t="s">
+      <c r="AN9" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AO9" s="9" t="s">
+      <c r="AO9" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3686,10 +3693,10 @@
       <c r="AM10" s="3">
         <v>0</v>
       </c>
-      <c r="AN10" s="9" t="s">
+      <c r="AN10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AO10" s="9" t="s">
+      <c r="AO10" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3811,10 +3818,10 @@
       <c r="AM11" s="3">
         <v>0</v>
       </c>
-      <c r="AN11" s="9" t="s">
+      <c r="AN11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AO11" s="9" t="s">
+      <c r="AO11" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3936,10 +3943,10 @@
       <c r="AM12" s="3">
         <v>0</v>
       </c>
-      <c r="AN12" s="9" t="s">
+      <c r="AN12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AO12" s="9" t="s">
+      <c r="AO12" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4061,10 +4068,10 @@
       <c r="AM13" s="3">
         <v>0</v>
       </c>
-      <c r="AN13" s="9" t="s">
+      <c r="AN13" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AO13" s="9" t="s">
+      <c r="AO13" s="10" t="s">
         <v>113</v>
       </c>
       <c r="AP13">
@@ -4189,10 +4196,10 @@
       <c r="AM14" s="3">
         <v>0</v>
       </c>
-      <c r="AN14" s="9" t="s">
+      <c r="AN14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AO14" s="9" t="s">
+      <c r="AO14" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4314,10 +4321,10 @@
       <c r="AM15" s="3">
         <v>0</v>
       </c>
-      <c r="AN15" s="9" t="s">
+      <c r="AN15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AO15" s="9" t="s">
+      <c r="AO15" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4439,10 +4446,10 @@
       <c r="AM16" s="3">
         <v>0</v>
       </c>
-      <c r="AN16" s="9" t="s">
+      <c r="AN16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AO16" s="9" t="s">
+      <c r="AO16" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4564,10 +4571,10 @@
       <c r="AM17" s="3">
         <v>0</v>
       </c>
-      <c r="AN17" s="9" t="s">
+      <c r="AN17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AO17" s="9" t="s">
+      <c r="AO17" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4689,10 +4696,10 @@
       <c r="AM18" s="3">
         <v>0</v>
       </c>
-      <c r="AN18" s="9" t="s">
+      <c r="AN18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AO18" s="9" t="s">
+      <c r="AO18" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4814,10 +4821,10 @@
       <c r="AM19" s="3">
         <v>0</v>
       </c>
-      <c r="AN19" s="9" t="s">
+      <c r="AN19" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="AO19" s="9" t="s">
+      <c r="AO19" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4939,10 +4946,10 @@
       <c r="AM20" s="3">
         <v>0</v>
       </c>
-      <c r="AN20" s="9" t="s">
+      <c r="AN20" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AO20" s="9" t="s">
+      <c r="AO20" s="10" t="s">
         <v>140</v>
       </c>
       <c r="AP20">
@@ -5067,10 +5074,10 @@
       <c r="AM21" s="3">
         <v>0</v>
       </c>
-      <c r="AN21" s="9" t="s">
+      <c r="AN21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AO21" s="9" t="s">
+      <c r="AO21" s="10" t="s">
         <v>143</v>
       </c>
       <c r="AP21">
@@ -5195,10 +5202,10 @@
       <c r="AM22" s="3">
         <v>0</v>
       </c>
-      <c r="AN22" s="9" t="s">
+      <c r="AN22" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AO22" s="9" t="s">
+      <c r="AO22" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5320,10 +5327,10 @@
       <c r="AM23" s="3">
         <v>0</v>
       </c>
-      <c r="AN23" s="9" t="s">
+      <c r="AN23" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AO23" s="9" t="s">
+      <c r="AO23" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5445,10 +5452,10 @@
       <c r="AM24" s="3">
         <v>0</v>
       </c>
-      <c r="AN24" s="9" t="s">
+      <c r="AN24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AO24" s="9" t="s">
+      <c r="AO24" s="10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5570,10 +5577,10 @@
       <c r="AM25" s="3">
         <v>0</v>
       </c>
-      <c r="AN25" s="9" t="s">
+      <c r="AN25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AO25" s="9" t="s">
+      <c r="AO25" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5695,10 +5702,10 @@
       <c r="AM26" s="3">
         <v>0</v>
       </c>
-      <c r="AN26" s="9" t="s">
+      <c r="AN26" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AO26" s="9" t="s">
+      <c r="AO26" s="10" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5820,10 +5827,10 @@
       <c r="AM27" s="3">
         <v>0</v>
       </c>
-      <c r="AN27" s="9" t="s">
+      <c r="AN27" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AO27" s="9" t="s">
+      <c r="AO27" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5945,10 +5952,10 @@
       <c r="AM28" s="3">
         <v>0</v>
       </c>
-      <c r="AN28" s="9" t="s">
+      <c r="AN28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AO28" s="9" t="s">
+      <c r="AO28" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6070,10 +6077,10 @@
       <c r="AM29" s="3">
         <v>0</v>
       </c>
-      <c r="AN29" s="9" t="s">
+      <c r="AN29" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AO29" s="9" t="s">
+      <c r="AO29" s="10" t="s">
         <v>174</v>
       </c>
       <c r="AP29">
@@ -6198,10 +6205,10 @@
       <c r="AM30" s="3">
         <v>0</v>
       </c>
-      <c r="AN30" s="9" t="s">
+      <c r="AN30" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="AO30" s="9">
+      <c r="AO30" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -6323,10 +6330,10 @@
       <c r="AM31" s="3">
         <v>0</v>
       </c>
-      <c r="AN31" s="9" t="s">
+      <c r="AN31" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AO31" s="9" t="s">
+      <c r="AO31" s="10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6448,10 +6455,10 @@
       <c r="AM32" s="3">
         <v>0</v>
       </c>
-      <c r="AN32" s="9" t="s">
+      <c r="AN32" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="AO32" s="9" t="s">
+      <c r="AO32" s="10" t="s">
         <v>184</v>
       </c>
       <c r="AP32">
@@ -6576,10 +6583,10 @@
       <c r="AM33" s="3">
         <v>0</v>
       </c>
-      <c r="AN33" s="9" t="s">
+      <c r="AN33" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AO33" s="9" t="s">
+      <c r="AO33" s="10" t="s">
         <v>187</v>
       </c>
       <c r="AP33">
@@ -6704,10 +6711,10 @@
       <c r="AM34" s="3">
         <v>0</v>
       </c>
-      <c r="AN34" s="9" t="s">
+      <c r="AN34" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="AO34" s="9">
+      <c r="AO34" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -6829,10 +6836,10 @@
       <c r="AM35" s="3">
         <v>0</v>
       </c>
-      <c r="AN35" s="9" t="s">
+      <c r="AN35" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AO35" s="9" t="s">
+      <c r="AO35" s="10" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6954,10 +6961,10 @@
       <c r="AM36" s="3">
         <v>0</v>
       </c>
-      <c r="AN36" s="9" t="s">
+      <c r="AN36" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AO36" s="9" t="s">
+      <c r="AO36" s="10" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7079,10 +7086,10 @@
       <c r="AM37" s="3">
         <v>0</v>
       </c>
-      <c r="AN37" s="9" t="s">
+      <c r="AN37" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AO37" s="9" t="s">
+      <c r="AO37" s="10" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7204,10 +7211,10 @@
       <c r="AM38" s="3">
         <v>0</v>
       </c>
-      <c r="AN38" s="9" t="s">
+      <c r="AN38" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AO38" s="9" t="s">
+      <c r="AO38" s="10" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7329,10 +7336,10 @@
       <c r="AM39" s="3">
         <v>0</v>
       </c>
-      <c r="AN39" s="9" t="s">
+      <c r="AN39" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AO39" s="9" t="s">
+      <c r="AO39" s="10" t="s">
         <v>207</v>
       </c>
       <c r="AP39">
@@ -7457,10 +7464,10 @@
       <c r="AM40" s="3">
         <v>0</v>
       </c>
-      <c r="AN40" s="9" t="s">
+      <c r="AN40" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AO40" s="9">
+      <c r="AO40" s="10">
         <v>-1</v>
       </c>
       <c r="AP40">
@@ -7585,10 +7592,10 @@
       <c r="AM41" s="3">
         <v>0</v>
       </c>
-      <c r="AN41" s="9" t="s">
+      <c r="AN41" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AO41" s="9" t="s">
+      <c r="AO41" s="10" t="s">
         <v>214</v>
       </c>
       <c r="AP41">
@@ -7713,10 +7720,10 @@
       <c r="AM42" s="3">
         <v>0</v>
       </c>
-      <c r="AN42" s="9" t="s">
+      <c r="AN42" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AO42" s="9" t="s">
+      <c r="AO42" s="10" t="s">
         <v>218</v>
       </c>
       <c r="AP42" s="3">
@@ -7841,10 +7848,10 @@
       <c r="AM43" s="3">
         <v>0</v>
       </c>
-      <c r="AN43" s="9" t="s">
+      <c r="AN43" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO43" s="9">
+      <c r="AO43" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -7966,10 +7973,10 @@
       <c r="AM44" s="3">
         <v>0</v>
       </c>
-      <c r="AN44" s="9" t="s">
+      <c r="AN44" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO44" s="9">
+      <c r="AO44" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -8091,10 +8098,10 @@
       <c r="AM45" s="3">
         <v>0</v>
       </c>
-      <c r="AN45" s="9" t="s">
+      <c r="AN45" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO45" s="9">
+      <c r="AO45" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -8216,10 +8223,10 @@
       <c r="AM46" s="3">
         <v>0</v>
       </c>
-      <c r="AN46" s="9" t="s">
+      <c r="AN46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO46" s="9">
+      <c r="AO46" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -8341,10 +8348,10 @@
       <c r="AM47" s="3">
         <v>0</v>
       </c>
-      <c r="AN47" s="9" t="s">
+      <c r="AN47" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AO47" s="9" t="s">
+      <c r="AO47" s="10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8466,10 +8473,10 @@
       <c r="AM48" s="3">
         <v>0</v>
       </c>
-      <c r="AN48" s="9" t="s">
+      <c r="AN48" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AO48" s="9" t="s">
+      <c r="AO48" s="10" t="s">
         <v>234</v>
       </c>
       <c r="AP48">
@@ -8594,10 +8601,10 @@
       <c r="AM49" s="3">
         <v>0</v>
       </c>
-      <c r="AN49" s="9" t="s">
+      <c r="AN49" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="AO49" s="9" t="s">
+      <c r="AO49" s="10" t="s">
         <v>238</v>
       </c>
       <c r="AP49">
@@ -8722,10 +8729,10 @@
       <c r="AM50" s="3">
         <v>0</v>
       </c>
-      <c r="AN50" s="9" t="s">
+      <c r="AN50" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="AO50" s="9" t="s">
+      <c r="AO50" s="10" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8847,10 +8854,10 @@
       <c r="AM51" s="3">
         <v>0</v>
       </c>
-      <c r="AN51" s="9" t="s">
+      <c r="AN51" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="AO51" s="9" t="s">
+      <c r="AO51" s="10" t="s">
         <v>246</v>
       </c>
       <c r="AP51">
@@ -8975,10 +8982,10 @@
       <c r="AM52" s="3">
         <v>0</v>
       </c>
-      <c r="AN52" s="9" t="s">
+      <c r="AN52" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="AO52" s="9" t="s">
+      <c r="AO52" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AP52">
@@ -9103,10 +9110,10 @@
       <c r="AM53" s="3">
         <v>0</v>
       </c>
-      <c r="AN53" s="9" t="s">
+      <c r="AN53" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AO53" s="9">
+      <c r="AO53" s="10">
         <v>-1</v>
       </c>
       <c r="AP53">
@@ -9231,10 +9238,10 @@
       <c r="AM54" s="3">
         <v>0</v>
       </c>
-      <c r="AN54" s="9" t="s">
+      <c r="AN54" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AO54" s="9" t="s">
+      <c r="AO54" s="10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9356,10 +9363,10 @@
       <c r="AM55" s="3">
         <v>0</v>
       </c>
-      <c r="AN55" s="9" t="s">
+      <c r="AN55" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AO55" s="9" t="s">
+      <c r="AO55" s="10" t="s">
         <v>260</v>
       </c>
       <c r="AP55">
@@ -9484,10 +9491,10 @@
       <c r="AM56" s="3">
         <v>0</v>
       </c>
-      <c r="AN56" s="9" t="s">
+      <c r="AN56" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO56" s="9">
+      <c r="AO56" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -9609,10 +9616,10 @@
       <c r="AM57" s="3">
         <v>0</v>
       </c>
-      <c r="AN57" s="9" t="s">
+      <c r="AN57" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AO57" s="9" t="s">
+      <c r="AO57" s="10" t="s">
         <v>266</v>
       </c>
       <c r="AP57">
@@ -9737,10 +9744,10 @@
       <c r="AM58" s="3">
         <v>0</v>
       </c>
-      <c r="AN58" s="9" t="s">
+      <c r="AN58" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AO58" s="9" t="s">
+      <c r="AO58" s="10" t="s">
         <v>270</v>
       </c>
       <c r="AP58">
@@ -9865,10 +9872,10 @@
       <c r="AM59" s="3">
         <v>0</v>
       </c>
-      <c r="AN59" s="9" t="s">
+      <c r="AN59" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AO59" s="9" t="s">
+      <c r="AO59" s="10" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9990,10 +9997,10 @@
       <c r="AM60" s="3">
         <v>0</v>
       </c>
-      <c r="AN60" s="9" t="s">
+      <c r="AN60" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AO60" s="9" t="s">
+      <c r="AO60" s="10" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10115,10 +10122,10 @@
       <c r="AM61" s="3">
         <v>0</v>
       </c>
-      <c r="AN61" s="9" t="s">
+      <c r="AN61" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="AO61" s="9" t="s">
+      <c r="AO61" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10240,10 +10247,10 @@
       <c r="AM62" s="3">
         <v>0</v>
       </c>
-      <c r="AN62" s="9" t="s">
+      <c r="AN62" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AO62" s="9" t="s">
+      <c r="AO62" s="10" t="s">
         <v>285</v>
       </c>
       <c r="AP62">
@@ -10368,10 +10375,10 @@
       <c r="AM63" s="3">
         <v>0</v>
       </c>
-      <c r="AN63" s="9" t="s">
+      <c r="AN63" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AO63" s="9" t="s">
+      <c r="AO63" s="10" t="s">
         <v>288</v>
       </c>
       <c r="AP63">
@@ -10496,10 +10503,10 @@
       <c r="AM64" s="3">
         <v>0</v>
       </c>
-      <c r="AN64" s="9" t="s">
+      <c r="AN64" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AO64" s="9" t="s">
+      <c r="AO64" s="10" t="s">
         <v>292</v>
       </c>
     </row>
@@ -10621,10 +10628,10 @@
       <c r="AM65" s="3">
         <v>0</v>
       </c>
-      <c r="AN65" s="9" t="s">
+      <c r="AN65" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="AO65" s="9" t="s">
+      <c r="AO65" s="10" t="s">
         <v>296</v>
       </c>
       <c r="AP65">
@@ -10749,10 +10756,10 @@
       <c r="AM66" s="3">
         <v>0</v>
       </c>
-      <c r="AN66" s="9" t="s">
+      <c r="AN66" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="AO66" s="9" t="s">
+      <c r="AO66" s="10" t="s">
         <v>299</v>
       </c>
     </row>
@@ -10874,10 +10881,10 @@
       <c r="AM67" s="3">
         <v>0</v>
       </c>
-      <c r="AN67" s="9" t="s">
+      <c r="AN67" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="AO67" s="9" t="s">
+      <c r="AO67" s="10" t="s">
         <v>303</v>
       </c>
       <c r="AP67">
@@ -11002,10 +11009,10 @@
       <c r="AM68" s="3">
         <v>0</v>
       </c>
-      <c r="AN68" s="9" t="s">
+      <c r="AN68" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="AO68" s="9" t="s">
+      <c r="AO68" s="10" t="s">
         <v>307</v>
       </c>
     </row>
@@ -11127,10 +11134,10 @@
       <c r="AM69" s="3">
         <v>0</v>
       </c>
-      <c r="AN69" s="9" t="s">
+      <c r="AN69" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="AO69" s="9" t="s">
+      <c r="AO69" s="10" t="s">
         <v>311</v>
       </c>
     </row>
@@ -11252,10 +11259,10 @@
       <c r="AM70" s="3">
         <v>0</v>
       </c>
-      <c r="AN70" s="9" t="s">
+      <c r="AN70" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AO70" s="9">
+      <c r="AO70" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -11377,10 +11384,10 @@
       <c r="AM71" s="3">
         <v>0</v>
       </c>
-      <c r="AN71" s="9" t="s">
+      <c r="AN71" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="AO71" s="9" t="s">
+      <c r="AO71" s="10" t="s">
         <v>318</v>
       </c>
     </row>
@@ -11502,10 +11509,10 @@
       <c r="AM72" s="3">
         <v>0</v>
       </c>
-      <c r="AN72" s="9" t="s">
+      <c r="AN72" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="AO72" s="9" t="s">
+      <c r="AO72" s="10" t="s">
         <v>322</v>
       </c>
     </row>
@@ -11627,10 +11634,10 @@
       <c r="AM73" s="3">
         <v>0</v>
       </c>
-      <c r="AN73" s="9" t="s">
+      <c r="AN73" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AO73" s="9" t="s">
+      <c r="AO73" s="10" t="s">
         <v>325</v>
       </c>
     </row>
@@ -11752,10 +11759,10 @@
       <c r="AM74" s="3">
         <v>0</v>
       </c>
-      <c r="AN74" s="9" t="s">
+      <c r="AN74" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="AO74" s="9" t="s">
+      <c r="AO74" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -11877,10 +11884,10 @@
       <c r="AM75" s="3">
         <v>0</v>
       </c>
-      <c r="AN75" s="9" t="s">
+      <c r="AN75" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="AO75" s="9" t="s">
+      <c r="AO75" s="10" t="s">
         <v>333</v>
       </c>
     </row>
@@ -12002,24 +12009,24 @@
       <c r="AM76" s="3">
         <v>0</v>
       </c>
-      <c r="AN76" s="9" t="s">
+      <c r="AN76" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AO76" s="9">
+      <c r="AO76" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:41">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>73</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="5" t="s">
         <v>336</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -12127,24 +12134,24 @@
       <c r="AM77" s="3">
         <v>0</v>
       </c>
-      <c r="AN77" s="9" t="s">
+      <c r="AN77" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AO77" s="9">
+      <c r="AO77" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:41">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>74</v>
       </c>
       <c r="C78" s="3">
         <v>5</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -12252,10 +12259,10 @@
       <c r="AM78" s="3">
         <v>0</v>
       </c>
-      <c r="AN78" s="9" t="s">
+      <c r="AN78" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AO78" s="9">
+      <c r="AO78" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -12377,10 +12384,10 @@
       <c r="AM79" s="3">
         <v>0</v>
       </c>
-      <c r="AN79" s="9" t="s">
+      <c r="AN79" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO79" s="9">
+      <c r="AO79" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -12502,10 +12509,10 @@
       <c r="AM80" s="3">
         <v>0</v>
       </c>
-      <c r="AN80" s="9" t="s">
+      <c r="AN80" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AO80" s="9">
+      <c r="AO80" s="10">
         <v>-1</v>
       </c>
       <c r="AP80">
@@ -12630,10 +12637,10 @@
       <c r="AM81" s="3">
         <v>0</v>
       </c>
-      <c r="AN81" s="9" t="s">
+      <c r="AN81" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="AO81" s="9">
+      <c r="AO81" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -12647,10 +12654,10 @@
       <c r="C82" s="3">
         <v>6</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="6" t="s">
         <v>346</v>
       </c>
       <c r="F82" s="3">
@@ -12755,10 +12762,10 @@
       <c r="AM82" s="3">
         <v>0</v>
       </c>
-      <c r="AN82" s="9" t="s">
+      <c r="AN82" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AO82" s="9">
+      <c r="AO82" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -12880,10 +12887,10 @@
       <c r="AM83" s="3">
         <v>0</v>
       </c>
-      <c r="AN83" s="9" t="s">
+      <c r="AN83" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO83" s="9">
+      <c r="AO83" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13005,10 +13012,10 @@
       <c r="AM84" s="3">
         <v>0</v>
       </c>
-      <c r="AN84" s="9" t="s">
+      <c r="AN84" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AO84" s="9">
+      <c r="AO84" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13130,10 +13137,10 @@
       <c r="AM85" s="3">
         <v>0</v>
       </c>
-      <c r="AN85" s="9" t="s">
+      <c r="AN85" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="AO85" s="9">
+      <c r="AO85" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13255,10 +13262,10 @@
       <c r="AM86" s="3">
         <v>0</v>
       </c>
-      <c r="AN86" s="9" t="s">
+      <c r="AN86" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="AO86" s="9">
+      <c r="AO86" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13380,10 +13387,10 @@
       <c r="AM87" s="3">
         <v>0</v>
       </c>
-      <c r="AN87" s="9" t="s">
+      <c r="AN87" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="AO87" s="9">
+      <c r="AO87" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13505,10 +13512,10 @@
       <c r="AM88" s="3">
         <v>0</v>
       </c>
-      <c r="AN88" s="9" t="s">
+      <c r="AN88" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="AO88" s="9">
+      <c r="AO88" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13630,10 +13637,10 @@
       <c r="AM89" s="3">
         <v>0</v>
       </c>
-      <c r="AN89" s="9" t="s">
+      <c r="AN89" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="AO89" s="9">
+      <c r="AO89" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13755,10 +13762,10 @@
       <c r="AM90" s="3">
         <v>0</v>
       </c>
-      <c r="AN90" s="9" t="s">
+      <c r="AN90" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="AO90" s="9">
+      <c r="AO90" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -13880,10 +13887,10 @@
       <c r="AM91" s="3">
         <v>0</v>
       </c>
-      <c r="AN91" s="9" t="s">
+      <c r="AN91" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="AO91" s="9">
+      <c r="AO91" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14005,10 +14012,10 @@
       <c r="AM92" s="3">
         <v>0</v>
       </c>
-      <c r="AN92" s="9" t="s">
+      <c r="AN92" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="AO92" s="9">
+      <c r="AO92" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14130,10 +14137,10 @@
       <c r="AM93" s="3">
         <v>0</v>
       </c>
-      <c r="AN93" s="9" t="s">
+      <c r="AN93" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="AO93" s="9">
+      <c r="AO93" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14255,10 +14262,10 @@
       <c r="AM94" s="3">
         <v>0</v>
       </c>
-      <c r="AN94" s="9" t="s">
+      <c r="AN94" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="AO94" s="9">
+      <c r="AO94" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14380,10 +14387,10 @@
       <c r="AM95" s="3">
         <v>0</v>
       </c>
-      <c r="AN95" s="9" t="s">
+      <c r="AN95" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="AO95" s="9">
+      <c r="AO95" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14505,10 +14512,10 @@
       <c r="AM96" s="3">
         <v>0</v>
       </c>
-      <c r="AN96" s="9" t="s">
+      <c r="AN96" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="AO96" s="9">
+      <c r="AO96" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14630,10 +14637,10 @@
       <c r="AM97" s="3">
         <v>0</v>
       </c>
-      <c r="AN97" s="9" t="s">
+      <c r="AN97" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="AO97" s="9">
+      <c r="AO97" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14755,10 +14762,10 @@
       <c r="AM98" s="3">
         <v>0</v>
       </c>
-      <c r="AN98" s="9" t="s">
+      <c r="AN98" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="AO98" s="9">
+      <c r="AO98" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -14880,10 +14887,10 @@
       <c r="AM99" s="3">
         <v>0</v>
       </c>
-      <c r="AN99" s="9" t="s">
+      <c r="AN99" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="AO99" s="9">
+      <c r="AO99" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15005,10 +15012,10 @@
       <c r="AM100" s="3">
         <v>0</v>
       </c>
-      <c r="AN100" s="9" t="s">
+      <c r="AN100" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="AO100" s="9">
+      <c r="AO100" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15130,10 +15137,10 @@
       <c r="AM101" s="3">
         <v>0</v>
       </c>
-      <c r="AN101" s="9" t="s">
+      <c r="AN101" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="AO101" s="9">
+      <c r="AO101" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15255,10 +15262,10 @@
       <c r="AM102" s="3">
         <v>0</v>
       </c>
-      <c r="AN102" s="9" t="s">
+      <c r="AN102" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="AO102" s="9">
+      <c r="AO102" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15380,10 +15387,10 @@
       <c r="AM103" s="3">
         <v>0</v>
       </c>
-      <c r="AN103" s="9" t="s">
+      <c r="AN103" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="AO103" s="9">
+      <c r="AO103" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15505,10 +15512,10 @@
       <c r="AM104" s="3">
         <v>0</v>
       </c>
-      <c r="AN104" s="9" t="s">
+      <c r="AN104" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="AO104" s="9">
+      <c r="AO104" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15630,10 +15637,10 @@
       <c r="AM105" s="3">
         <v>0</v>
       </c>
-      <c r="AN105" s="9" t="s">
+      <c r="AN105" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="AO105" s="9">
+      <c r="AO105" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15755,10 +15762,10 @@
       <c r="AM106" s="3">
         <v>0</v>
       </c>
-      <c r="AN106" s="9" t="s">
+      <c r="AN106" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="AO106" s="9">
+      <c r="AO106" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -15880,10 +15887,10 @@
       <c r="AM107" s="3">
         <v>0</v>
       </c>
-      <c r="AN107" s="9" t="s">
+      <c r="AN107" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="AO107" s="9">
+      <c r="AO107" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16005,10 +16012,10 @@
       <c r="AM108" s="3">
         <v>0</v>
       </c>
-      <c r="AN108" s="9" t="s">
+      <c r="AN108" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="AO108" s="9">
+      <c r="AO108" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16130,10 +16137,10 @@
       <c r="AM109" s="3">
         <v>0</v>
       </c>
-      <c r="AN109" s="9" t="s">
+      <c r="AN109" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="AO109" s="9">
+      <c r="AO109" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16255,10 +16262,10 @@
       <c r="AM110" s="3">
         <v>0</v>
       </c>
-      <c r="AN110" s="9" t="s">
+      <c r="AN110" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="AO110" s="9">
+      <c r="AO110" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16380,10 +16387,10 @@
       <c r="AM111" s="3">
         <v>0</v>
       </c>
-      <c r="AN111" s="9" t="s">
+      <c r="AN111" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="AO111" s="9">
+      <c r="AO111" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16505,10 +16512,10 @@
       <c r="AM112" s="3">
         <v>0</v>
       </c>
-      <c r="AN112" s="9" t="s">
+      <c r="AN112" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="AO112" s="9">
+      <c r="AO112" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16630,10 +16637,10 @@
       <c r="AM113" s="3">
         <v>0</v>
       </c>
-      <c r="AN113" s="9" t="s">
+      <c r="AN113" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="AO113" s="9">
+      <c r="AO113" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16755,10 +16762,10 @@
       <c r="AM114" s="3">
         <v>0</v>
       </c>
-      <c r="AN114" s="9" t="s">
+      <c r="AN114" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AO114" s="9">
+      <c r="AO114" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -16880,10 +16887,10 @@
       <c r="AM115" s="3">
         <v>0</v>
       </c>
-      <c r="AN115" s="9" t="s">
+      <c r="AN115" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="AO115" s="9">
+      <c r="AO115" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17005,10 +17012,10 @@
       <c r="AM116" s="3">
         <v>0</v>
       </c>
-      <c r="AN116" s="9" t="s">
+      <c r="AN116" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="AO116" s="9">
+      <c r="AO116" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17130,10 +17137,10 @@
       <c r="AM117" s="3">
         <v>0</v>
       </c>
-      <c r="AN117" s="9" t="s">
+      <c r="AN117" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="AO117" s="9">
+      <c r="AO117" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17255,10 +17262,10 @@
       <c r="AM118" s="3">
         <v>0</v>
       </c>
-      <c r="AN118" s="9" t="s">
+      <c r="AN118" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="AO118" s="9">
+      <c r="AO118" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17380,10 +17387,10 @@
       <c r="AM119" s="3">
         <v>0</v>
       </c>
-      <c r="AN119" s="9" t="s">
+      <c r="AN119" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="AO119" s="9">
+      <c r="AO119" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17505,10 +17512,10 @@
       <c r="AM120" s="3">
         <v>0</v>
       </c>
-      <c r="AN120" s="9" t="s">
+      <c r="AN120" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="AO120" s="9">
+      <c r="AO120" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17630,10 +17637,10 @@
       <c r="AM121" s="3">
         <v>0</v>
       </c>
-      <c r="AN121" s="9" t="s">
+      <c r="AN121" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="AO121" s="9">
+      <c r="AO121" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17755,10 +17762,10 @@
       <c r="AM122" s="3">
         <v>0</v>
       </c>
-      <c r="AN122" s="9" t="s">
+      <c r="AN122" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="AO122" s="9">
+      <c r="AO122" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -17880,10 +17887,10 @@
       <c r="AM123" s="3">
         <v>0</v>
       </c>
-      <c r="AN123" s="9" t="s">
+      <c r="AN123" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="AO123" s="9">
+      <c r="AO123" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18005,10 +18012,10 @@
       <c r="AM124" s="3">
         <v>0</v>
       </c>
-      <c r="AN124" s="9" t="s">
+      <c r="AN124" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="AO124" s="9">
+      <c r="AO124" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18130,10 +18137,10 @@
       <c r="AM125" s="3">
         <v>0</v>
       </c>
-      <c r="AN125" s="9" t="s">
+      <c r="AN125" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="AO125" s="9">
+      <c r="AO125" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18255,10 +18262,10 @@
       <c r="AM126" s="3">
         <v>0</v>
       </c>
-      <c r="AN126" s="9" t="s">
+      <c r="AN126" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="AO126" s="9">
+      <c r="AO126" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18380,10 +18387,10 @@
       <c r="AM127" s="3">
         <v>0</v>
       </c>
-      <c r="AN127" s="9" t="s">
+      <c r="AN127" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="AO127" s="9">
+      <c r="AO127" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18505,10 +18512,10 @@
       <c r="AM128" s="3">
         <v>0</v>
       </c>
-      <c r="AN128" s="9" t="s">
+      <c r="AN128" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="AO128" s="9">
+      <c r="AO128" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18630,10 +18637,10 @@
       <c r="AM129" s="3">
         <v>0</v>
       </c>
-      <c r="AN129" s="9" t="s">
+      <c r="AN129" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="AO129" s="9">
+      <c r="AO129" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18755,10 +18762,10 @@
       <c r="AM130" s="3">
         <v>0</v>
       </c>
-      <c r="AN130" s="9" t="s">
+      <c r="AN130" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="AO130" s="9">
+      <c r="AO130" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -18880,10 +18887,10 @@
       <c r="AM131" s="3">
         <v>0</v>
       </c>
-      <c r="AN131" s="9" t="s">
+      <c r="AN131" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="AO131" s="9">
+      <c r="AO131" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -19005,10 +19012,10 @@
       <c r="AM132" s="3">
         <v>0</v>
       </c>
-      <c r="AN132" s="9" t="s">
+      <c r="AN132" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="AO132" s="9">
+      <c r="AO132" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -19130,10 +19137,10 @@
       <c r="AM133" s="3">
         <v>0</v>
       </c>
-      <c r="AN133" s="9" t="s">
+      <c r="AN133" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="AO133" s="9">
+      <c r="AO133" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -19255,10 +19262,10 @@
       <c r="AM134" s="3">
         <v>0</v>
       </c>
-      <c r="AN134" s="9" t="s">
+      <c r="AN134" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="AO134" s="9">
+      <c r="AO134" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -19380,10 +19387,10 @@
       <c r="AM135" s="3">
         <v>0</v>
       </c>
-      <c r="AN135" s="9" t="s">
+      <c r="AN135" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="AO135" s="9" t="s">
+      <c r="AO135" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -19505,10 +19512,10 @@
       <c r="AM136" s="3">
         <v>0</v>
       </c>
-      <c r="AN136" s="9" t="s">
+      <c r="AN136" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="AO136" s="9" t="s">
+      <c r="AO136" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -19630,10 +19637,10 @@
       <c r="AM137" s="3">
         <v>0</v>
       </c>
-      <c r="AN137" s="9" t="s">
+      <c r="AN137" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="AO137" s="9" t="s">
+      <c r="AO137" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -19755,10 +19762,10 @@
       <c r="AM138" s="3">
         <v>0</v>
       </c>
-      <c r="AN138" s="9" t="s">
+      <c r="AN138" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="AO138" s="9" t="s">
+      <c r="AO138" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -19880,10 +19887,10 @@
       <c r="AM139" s="3">
         <v>0</v>
       </c>
-      <c r="AN139" s="9" t="s">
+      <c r="AN139" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="AO139" s="9" t="s">
+      <c r="AO139" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -20005,10 +20012,10 @@
       <c r="AM140" s="3">
         <v>0</v>
       </c>
-      <c r="AN140" s="9" t="s">
+      <c r="AN140" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="AO140" s="9" t="s">
+      <c r="AO140" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -20130,10 +20137,10 @@
       <c r="AM141" s="3">
         <v>0</v>
       </c>
-      <c r="AN141" s="9" t="s">
+      <c r="AN141" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="AO141" s="9" t="s">
+      <c r="AO141" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -20255,10 +20262,10 @@
       <c r="AM142" s="3">
         <v>0</v>
       </c>
-      <c r="AN142" s="9" t="s">
+      <c r="AN142" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="AO142" s="9" t="s">
+      <c r="AO142" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -20380,10 +20387,10 @@
       <c r="AM143" s="3">
         <v>0</v>
       </c>
-      <c r="AN143" s="9" t="s">
+      <c r="AN143" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="AO143" s="9" t="s">
+      <c r="AO143" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -20505,10 +20512,10 @@
       <c r="AM144" s="3">
         <v>0</v>
       </c>
-      <c r="AN144" s="9" t="s">
+      <c r="AN144" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="AO144" s="9" t="s">
+      <c r="AO144" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -20630,10 +20637,10 @@
       <c r="AM145" s="3">
         <v>0</v>
       </c>
-      <c r="AN145" s="9" t="s">
+      <c r="AN145" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="AO145" s="9">
+      <c r="AO145" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -20755,10 +20762,10 @@
       <c r="AM146" s="3">
         <v>0</v>
       </c>
-      <c r="AN146" s="9" t="s">
+      <c r="AN146" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="AO146" s="9">
+      <c r="AO146" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -20880,10 +20887,10 @@
       <c r="AM147" s="3">
         <v>0</v>
       </c>
-      <c r="AN147" s="9" t="s">
+      <c r="AN147" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="AO147" s="9">
+      <c r="AO147" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21005,10 +21012,10 @@
       <c r="AM148" s="3">
         <v>0</v>
       </c>
-      <c r="AN148" s="9" t="s">
+      <c r="AN148" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="AO148" s="9">
+      <c r="AO148" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21130,10 +21137,10 @@
       <c r="AM149" s="3">
         <v>0</v>
       </c>
-      <c r="AN149" s="9" t="s">
+      <c r="AN149" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="AO149" s="9">
+      <c r="AO149" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21255,10 +21262,10 @@
       <c r="AM150" s="3">
         <v>0</v>
       </c>
-      <c r="AN150" s="9" t="s">
+      <c r="AN150" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="AO150" s="9">
+      <c r="AO150" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21380,10 +21387,10 @@
       <c r="AM151" s="3">
         <v>0</v>
       </c>
-      <c r="AN151" s="9" t="s">
+      <c r="AN151" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="AO151" s="9">
+      <c r="AO151" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21505,10 +21512,10 @@
       <c r="AM152" s="3">
         <v>0</v>
       </c>
-      <c r="AN152" s="9" t="s">
+      <c r="AN152" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="AO152" s="9">
+      <c r="AO152" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21630,10 +21637,10 @@
       <c r="AM153" s="3">
         <v>0</v>
       </c>
-      <c r="AN153" s="9" t="s">
+      <c r="AN153" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="AO153" s="9">
+      <c r="AO153" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21755,10 +21762,10 @@
       <c r="AM154" s="3">
         <v>0</v>
       </c>
-      <c r="AN154" s="9" t="s">
+      <c r="AN154" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="AO154" s="9">
+      <c r="AO154" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -21880,10 +21887,10 @@
       <c r="AM155" s="3">
         <v>0</v>
       </c>
-      <c r="AN155" s="9" t="s">
+      <c r="AN155" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="AO155" s="9" t="s">
+      <c r="AO155" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22005,10 +22012,10 @@
       <c r="AM156" s="3">
         <v>0</v>
       </c>
-      <c r="AN156" s="9" t="s">
+      <c r="AN156" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="AO156" s="9" t="s">
+      <c r="AO156" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22130,10 +22137,10 @@
       <c r="AM157" s="3">
         <v>0</v>
       </c>
-      <c r="AN157" s="9" t="s">
+      <c r="AN157" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AO157" s="9" t="s">
+      <c r="AO157" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22255,10 +22262,10 @@
       <c r="AM158" s="3">
         <v>0</v>
       </c>
-      <c r="AN158" s="9" t="s">
+      <c r="AN158" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AO158" s="9" t="s">
+      <c r="AO158" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22380,10 +22387,10 @@
       <c r="AM159" s="3">
         <v>0</v>
       </c>
-      <c r="AN159" s="9" t="s">
+      <c r="AN159" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AO159" s="9" t="s">
+      <c r="AO159" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22505,10 +22512,10 @@
       <c r="AM160" s="3">
         <v>0</v>
       </c>
-      <c r="AN160" s="9" t="s">
+      <c r="AN160" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="AO160" s="9" t="s">
+      <c r="AO160" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22630,10 +22637,10 @@
       <c r="AM161" s="3">
         <v>0</v>
       </c>
-      <c r="AN161" s="9" t="s">
+      <c r="AN161" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="AO161" s="9" t="s">
+      <c r="AO161" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22755,10 +22762,10 @@
       <c r="AM162" s="3">
         <v>0</v>
       </c>
-      <c r="AN162" s="9" t="s">
+      <c r="AN162" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="AO162" s="9" t="s">
+      <c r="AO162" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -22880,10 +22887,10 @@
       <c r="AM163" s="3">
         <v>0</v>
       </c>
-      <c r="AN163" s="9" t="s">
+      <c r="AN163" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="AO163" s="9" t="s">
+      <c r="AO163" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -23005,10 +23012,10 @@
       <c r="AM164" s="3">
         <v>0</v>
       </c>
-      <c r="AN164" s="9" t="s">
+      <c r="AN164" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="AO164" s="9" t="s">
+      <c r="AO164" s="10" t="s">
         <v>398</v>
       </c>
     </row>
@@ -23130,10 +23137,10 @@
       <c r="AM165" s="3">
         <v>0</v>
       </c>
-      <c r="AN165" s="9" t="s">
+      <c r="AN165" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="AO165" s="9" t="s">
+      <c r="AO165" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -23255,10 +23262,10 @@
       <c r="AM166" s="3">
         <v>0</v>
       </c>
-      <c r="AN166" s="9" t="s">
+      <c r="AN166" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="AO166" s="9" t="s">
+      <c r="AO166" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -23380,10 +23387,10 @@
       <c r="AM167" s="3">
         <v>0</v>
       </c>
-      <c r="AN167" s="9" t="s">
+      <c r="AN167" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="AO167" s="9" t="s">
+      <c r="AO167" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -23505,10 +23512,10 @@
       <c r="AM168" s="3">
         <v>0</v>
       </c>
-      <c r="AN168" s="9" t="s">
+      <c r="AN168" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="AO168" s="9" t="s">
+      <c r="AO168" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -23630,10 +23637,10 @@
       <c r="AM169" s="3">
         <v>0</v>
       </c>
-      <c r="AN169" s="9" t="s">
+      <c r="AN169" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="AO169" s="9" t="s">
+      <c r="AO169" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -23755,10 +23762,10 @@
       <c r="AM170" s="3">
         <v>0</v>
       </c>
-      <c r="AN170" s="9" t="s">
+      <c r="AN170" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="AO170" s="9" t="s">
+      <c r="AO170" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -23880,10 +23887,10 @@
       <c r="AM171" s="3">
         <v>0</v>
       </c>
-      <c r="AN171" s="9" t="s">
+      <c r="AN171" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="AO171" s="9" t="s">
+      <c r="AO171" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -24005,10 +24012,10 @@
       <c r="AM172" s="3">
         <v>0</v>
       </c>
-      <c r="AN172" s="9" t="s">
+      <c r="AN172" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="AO172" s="9" t="s">
+      <c r="AO172" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -24130,10 +24137,10 @@
       <c r="AM173" s="3">
         <v>0</v>
       </c>
-      <c r="AN173" s="9" t="s">
+      <c r="AN173" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="AO173" s="9" t="s">
+      <c r="AO173" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -24255,10 +24262,10 @@
       <c r="AM174" s="3">
         <v>0</v>
       </c>
-      <c r="AN174" s="9" t="s">
+      <c r="AN174" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="AO174" s="9" t="s">
+      <c r="AO174" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -24380,10 +24387,10 @@
       <c r="AM175" s="3">
         <v>0</v>
       </c>
-      <c r="AN175" s="9" t="s">
+      <c r="AN175" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="AO175" s="9">
+      <c r="AO175" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -24505,10 +24512,10 @@
       <c r="AM176" s="3">
         <v>0</v>
       </c>
-      <c r="AN176" s="9" t="s">
+      <c r="AN176" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="AO176" s="9">
+      <c r="AO176" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -24630,10 +24637,10 @@
       <c r="AM177" s="3">
         <v>0</v>
       </c>
-      <c r="AN177" s="9" t="s">
+      <c r="AN177" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="AO177" s="9">
+      <c r="AO177" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -24755,10 +24762,10 @@
       <c r="AM178" s="3">
         <v>0</v>
       </c>
-      <c r="AN178" s="9" t="s">
+      <c r="AN178" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="AO178" s="9">
+      <c r="AO178" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -24880,10 +24887,10 @@
       <c r="AM179" s="3">
         <v>0</v>
       </c>
-      <c r="AN179" s="9" t="s">
+      <c r="AN179" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="AO179" s="9">
+      <c r="AO179" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -25005,10 +25012,10 @@
       <c r="AM180" s="3">
         <v>0</v>
       </c>
-      <c r="AN180" s="9" t="s">
+      <c r="AN180" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="AO180" s="9">
+      <c r="AO180" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -25130,10 +25137,10 @@
       <c r="AM181" s="3">
         <v>0</v>
       </c>
-      <c r="AN181" s="9" t="s">
+      <c r="AN181" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="AO181" s="9">
+      <c r="AO181" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -25255,10 +25262,10 @@
       <c r="AM182" s="3">
         <v>0</v>
       </c>
-      <c r="AN182" s="9" t="s">
+      <c r="AN182" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="AO182" s="9">
+      <c r="AO182" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -25380,10 +25387,10 @@
       <c r="AM183" s="3">
         <v>0</v>
       </c>
-      <c r="AN183" s="9" t="s">
+      <c r="AN183" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="AO183" s="9">
+      <c r="AO183" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -25505,10 +25512,10 @@
       <c r="AM184" s="3">
         <v>0</v>
       </c>
-      <c r="AN184" s="9" t="s">
+      <c r="AN184" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="AO184" s="9">
+      <c r="AO184" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -25630,10 +25637,10 @@
       <c r="AM185" s="3">
         <v>0</v>
       </c>
-      <c r="AN185" s="9" t="s">
+      <c r="AN185" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="AO185" s="9" t="s">
+      <c r="AO185" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -25755,10 +25762,10 @@
       <c r="AM186" s="3">
         <v>0</v>
       </c>
-      <c r="AN186" s="9" t="s">
+      <c r="AN186" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="AO186" s="9" t="s">
+      <c r="AO186" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -25880,10 +25887,10 @@
       <c r="AM187" s="3">
         <v>0</v>
       </c>
-      <c r="AN187" s="9" t="s">
+      <c r="AN187" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="AO187" s="9" t="s">
+      <c r="AO187" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26005,10 +26012,10 @@
       <c r="AM188" s="3">
         <v>0</v>
       </c>
-      <c r="AN188" s="9" t="s">
+      <c r="AN188" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="AO188" s="9" t="s">
+      <c r="AO188" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26130,10 +26137,10 @@
       <c r="AM189" s="3">
         <v>0</v>
       </c>
-      <c r="AN189" s="9" t="s">
+      <c r="AN189" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="AO189" s="9" t="s">
+      <c r="AO189" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26255,10 +26262,10 @@
       <c r="AM190" s="3">
         <v>0</v>
       </c>
-      <c r="AN190" s="9" t="s">
+      <c r="AN190" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="AO190" s="9" t="s">
+      <c r="AO190" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26380,10 +26387,10 @@
       <c r="AM191" s="3">
         <v>0</v>
       </c>
-      <c r="AN191" s="9" t="s">
+      <c r="AN191" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="AO191" s="9" t="s">
+      <c r="AO191" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26505,10 +26512,10 @@
       <c r="AM192" s="3">
         <v>0</v>
       </c>
-      <c r="AN192" s="9" t="s">
+      <c r="AN192" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="AO192" s="9" t="s">
+      <c r="AO192" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26630,10 +26637,10 @@
       <c r="AM193" s="3">
         <v>0</v>
       </c>
-      <c r="AN193" s="9" t="s">
+      <c r="AN193" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="AO193" s="9" t="s">
+      <c r="AO193" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26755,10 +26762,10 @@
       <c r="AM194" s="3">
         <v>0</v>
       </c>
-      <c r="AN194" s="9" t="s">
+      <c r="AN194" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="AO194" s="9" t="s">
+      <c r="AO194" s="10" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26880,10 +26887,10 @@
       <c r="AM195" s="3">
         <v>0</v>
       </c>
-      <c r="AN195" s="9" t="s">
+      <c r="AN195" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="AO195" s="9" t="s">
+      <c r="AO195" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27005,10 +27012,10 @@
       <c r="AM196" s="3">
         <v>0</v>
       </c>
-      <c r="AN196" s="9" t="s">
+      <c r="AN196" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="AO196" s="9" t="s">
+      <c r="AO196" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27130,10 +27137,10 @@
       <c r="AM197" s="3">
         <v>0</v>
       </c>
-      <c r="AN197" s="9" t="s">
+      <c r="AN197" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="AO197" s="9" t="s">
+      <c r="AO197" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27255,10 +27262,10 @@
       <c r="AM198" s="3">
         <v>0</v>
       </c>
-      <c r="AN198" s="9" t="s">
+      <c r="AN198" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="AO198" s="9" t="s">
+      <c r="AO198" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27380,10 +27387,10 @@
       <c r="AM199" s="3">
         <v>0</v>
       </c>
-      <c r="AN199" s="9" t="s">
+      <c r="AN199" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="AO199" s="9" t="s">
+      <c r="AO199" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27505,10 +27512,10 @@
       <c r="AM200" s="3">
         <v>0</v>
       </c>
-      <c r="AN200" s="9" t="s">
+      <c r="AN200" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="AO200" s="9" t="s">
+      <c r="AO200" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27630,10 +27637,10 @@
       <c r="AM201" s="3">
         <v>0</v>
       </c>
-      <c r="AN201" s="9" t="s">
+      <c r="AN201" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="AO201" s="9" t="s">
+      <c r="AO201" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27755,10 +27762,10 @@
       <c r="AM202" s="3">
         <v>0</v>
       </c>
-      <c r="AN202" s="9" t="s">
+      <c r="AN202" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="AO202" s="9" t="s">
+      <c r="AO202" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -27880,10 +27887,10 @@
       <c r="AM203" s="3">
         <v>0</v>
       </c>
-      <c r="AN203" s="9" t="s">
+      <c r="AN203" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="AO203" s="9" t="s">
+      <c r="AO203" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -28005,10 +28012,10 @@
       <c r="AM204" s="3">
         <v>0</v>
       </c>
-      <c r="AN204" s="9" t="s">
+      <c r="AN204" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="AO204" s="9" t="s">
+      <c r="AO204" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -28130,10 +28137,10 @@
       <c r="AM205" s="3">
         <v>0</v>
       </c>
-      <c r="AN205" s="9" t="s">
+      <c r="AN205" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="AO205" s="9">
+      <c r="AO205" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -28255,10 +28262,10 @@
       <c r="AM206" s="3">
         <v>0</v>
       </c>
-      <c r="AN206" s="9" t="s">
+      <c r="AN206" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="AO206" s="9">
+      <c r="AO206" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -28380,10 +28387,10 @@
       <c r="AM207" s="3">
         <v>0</v>
       </c>
-      <c r="AN207" s="9" t="s">
+      <c r="AN207" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="AO207" s="9">
+      <c r="AO207" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -28505,10 +28512,10 @@
       <c r="AM208" s="3">
         <v>0</v>
       </c>
-      <c r="AN208" s="9" t="s">
+      <c r="AN208" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="AO208" s="9">
+      <c r="AO208" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -28630,10 +28637,10 @@
       <c r="AM209" s="3">
         <v>0</v>
       </c>
-      <c r="AN209" s="9" t="s">
+      <c r="AN209" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="AO209" s="9">
+      <c r="AO209" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -28755,10 +28762,10 @@
       <c r="AM210" s="3">
         <v>0</v>
       </c>
-      <c r="AN210" s="9" t="s">
+      <c r="AN210" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="AO210" s="9">
+      <c r="AO210" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -28880,10 +28887,10 @@
       <c r="AM211" s="3">
         <v>0</v>
       </c>
-      <c r="AN211" s="9" t="s">
+      <c r="AN211" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="AO211" s="9">
+      <c r="AO211" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29005,10 +29012,10 @@
       <c r="AM212" s="3">
         <v>0</v>
       </c>
-      <c r="AN212" s="9" t="s">
+      <c r="AN212" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="AO212" s="9">
+      <c r="AO212" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29130,10 +29137,10 @@
       <c r="AM213" s="3">
         <v>0</v>
       </c>
-      <c r="AN213" s="9" t="s">
+      <c r="AN213" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="AO213" s="9">
+      <c r="AO213" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29255,10 +29262,10 @@
       <c r="AM214" s="3">
         <v>0</v>
       </c>
-      <c r="AN214" s="9" t="s">
+      <c r="AN214" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="AO214" s="9">
+      <c r="AO214" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29380,10 +29387,10 @@
       <c r="AM215" s="3">
         <v>0</v>
       </c>
-      <c r="AN215" s="9" t="s">
+      <c r="AN215" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO215" s="9">
+      <c r="AO215" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29505,10 +29512,10 @@
       <c r="AM216" s="3">
         <v>0</v>
       </c>
-      <c r="AN216" s="9" t="s">
+      <c r="AN216" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO216" s="9">
+      <c r="AO216" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29630,10 +29637,10 @@
       <c r="AM217" s="3">
         <v>0</v>
       </c>
-      <c r="AN217" s="9" t="s">
+      <c r="AN217" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="AO217" s="9">
+      <c r="AO217" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29755,10 +29762,10 @@
       <c r="AM218" s="3">
         <v>0</v>
       </c>
-      <c r="AN218" s="9" t="s">
+      <c r="AN218" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="AO218" s="9">
+      <c r="AO218" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -29880,10 +29887,10 @@
       <c r="AM219" s="3">
         <v>0</v>
       </c>
-      <c r="AN219" s="9" t="s">
+      <c r="AN219" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO219" s="9">
+      <c r="AO219" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30005,10 +30012,10 @@
       <c r="AM220" s="3">
         <v>0</v>
       </c>
-      <c r="AN220" s="9" t="s">
+      <c r="AN220" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO220" s="9">
+      <c r="AO220" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30130,10 +30137,10 @@
       <c r="AM221" s="3">
         <v>0</v>
       </c>
-      <c r="AN221" s="9" t="s">
+      <c r="AN221" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO221" s="9">
+      <c r="AO221" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30255,10 +30262,10 @@
       <c r="AM222" s="3">
         <v>0</v>
       </c>
-      <c r="AN222" s="9" t="s">
+      <c r="AN222" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO222" s="9">
+      <c r="AO222" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30380,10 +30387,10 @@
       <c r="AM223" s="3">
         <v>0</v>
       </c>
-      <c r="AN223" s="9" t="s">
+      <c r="AN223" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO223" s="9">
+      <c r="AO223" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30505,10 +30512,10 @@
       <c r="AM224" s="3">
         <v>0</v>
       </c>
-      <c r="AN224" s="9" t="s">
+      <c r="AN224" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AO224" s="9">
+      <c r="AO224" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30630,10 +30637,10 @@
       <c r="AM225" s="3">
         <v>0</v>
       </c>
-      <c r="AN225" s="9" t="s">
+      <c r="AN225" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="AO225" s="9">
+      <c r="AO225" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30755,10 +30762,10 @@
       <c r="AM226" s="3">
         <v>0</v>
       </c>
-      <c r="AN226" s="9" t="s">
+      <c r="AN226" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="AO226" s="9">
+      <c r="AO226" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -30880,10 +30887,10 @@
       <c r="AM227" s="3">
         <v>0</v>
       </c>
-      <c r="AN227" s="9" t="s">
+      <c r="AN227" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="AO227" s="9">
+      <c r="AO227" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31005,10 +31012,10 @@
       <c r="AM228" s="3">
         <v>0</v>
       </c>
-      <c r="AN228" s="9" t="s">
+      <c r="AN228" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="AO228" s="9">
+      <c r="AO228" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31130,10 +31137,10 @@
       <c r="AM229" s="3">
         <v>0</v>
       </c>
-      <c r="AN229" s="9" t="s">
+      <c r="AN229" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AO229" s="9">
+      <c r="AO229" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31255,10 +31262,10 @@
       <c r="AM230" s="3">
         <v>0</v>
       </c>
-      <c r="AN230" s="9" t="s">
+      <c r="AN230" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AO230" s="9">
+      <c r="AO230" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31380,10 +31387,10 @@
       <c r="AM231" s="3">
         <v>0</v>
       </c>
-      <c r="AN231" s="9" t="s">
+      <c r="AN231" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AO231" s="9">
+      <c r="AO231" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31505,10 +31512,10 @@
       <c r="AM232" s="3">
         <v>0</v>
       </c>
-      <c r="AN232" s="9" t="s">
+      <c r="AN232" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="AO232" s="9">
+      <c r="AO232" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31630,10 +31637,10 @@
       <c r="AM233" s="3">
         <v>0</v>
       </c>
-      <c r="AN233" s="9" t="s">
+      <c r="AN233" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="AO233" s="9">
+      <c r="AO233" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31755,10 +31762,10 @@
       <c r="AM234" s="3">
         <v>0</v>
       </c>
-      <c r="AN234" s="9" t="s">
+      <c r="AN234" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="AO234" s="9">
+      <c r="AO234" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -31880,10 +31887,10 @@
       <c r="AM235" s="3">
         <v>0</v>
       </c>
-      <c r="AN235" s="9" t="s">
+      <c r="AN235" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="AO235" s="9">
+      <c r="AO235" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32005,10 +32012,10 @@
       <c r="AM236" s="3">
         <v>0</v>
       </c>
-      <c r="AN236" s="9" t="s">
+      <c r="AN236" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="AO236" s="9">
+      <c r="AO236" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32130,10 +32137,10 @@
       <c r="AM237" s="3">
         <v>0</v>
       </c>
-      <c r="AN237" s="9" t="s">
+      <c r="AN237" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="AO237" s="9">
+      <c r="AO237" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32255,10 +32262,10 @@
       <c r="AM238" s="3">
         <v>0</v>
       </c>
-      <c r="AN238" s="9" t="s">
+      <c r="AN238" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="AO238" s="9">
+      <c r="AO238" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32380,10 +32387,10 @@
       <c r="AM239" s="3">
         <v>0</v>
       </c>
-      <c r="AN239" s="9" t="s">
+      <c r="AN239" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="AO239" s="9">
+      <c r="AO239" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32505,10 +32512,10 @@
       <c r="AM240" s="3">
         <v>0</v>
       </c>
-      <c r="AN240" s="9" t="s">
+      <c r="AN240" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="AO240" s="9">
+      <c r="AO240" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32630,10 +32637,10 @@
       <c r="AM241" s="3">
         <v>0</v>
       </c>
-      <c r="AN241" s="9" t="s">
+      <c r="AN241" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="AO241" s="9">
+      <c r="AO241" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32755,10 +32762,10 @@
       <c r="AM242" s="3">
         <v>0</v>
       </c>
-      <c r="AN242" s="9" t="s">
+      <c r="AN242" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="AO242" s="9">
+      <c r="AO242" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -32880,10 +32887,10 @@
       <c r="AM243" s="3">
         <v>0</v>
       </c>
-      <c r="AN243" s="9" t="s">
+      <c r="AN243" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="AO243" s="9">
+      <c r="AO243" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33005,10 +33012,10 @@
       <c r="AM244" s="3">
         <v>0</v>
       </c>
-      <c r="AN244" s="9" t="s">
+      <c r="AN244" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="AO244" s="9">
+      <c r="AO244" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33130,10 +33137,10 @@
       <c r="AM245" s="3">
         <v>0</v>
       </c>
-      <c r="AN245" s="9" t="s">
+      <c r="AN245" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="AO245" s="9">
+      <c r="AO245" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33255,10 +33262,10 @@
       <c r="AM246" s="3">
         <v>0</v>
       </c>
-      <c r="AN246" s="9" t="s">
+      <c r="AN246" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="AO246" s="9">
+      <c r="AO246" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33380,10 +33387,10 @@
       <c r="AM247" s="3">
         <v>0</v>
       </c>
-      <c r="AN247" s="9" t="s">
+      <c r="AN247" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AO247" s="9">
+      <c r="AO247" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33505,10 +33512,10 @@
       <c r="AM248" s="3">
         <v>0</v>
       </c>
-      <c r="AN248" s="9" t="s">
+      <c r="AN248" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AO248" s="9">
+      <c r="AO248" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33630,10 +33637,10 @@
       <c r="AM249" s="3">
         <v>0</v>
       </c>
-      <c r="AN249" s="9" t="s">
+      <c r="AN249" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AO249" s="9">
+      <c r="AO249" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33755,10 +33762,10 @@
       <c r="AM250" s="3">
         <v>0</v>
       </c>
-      <c r="AN250" s="9" t="s">
+      <c r="AN250" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AO250" s="9">
+      <c r="AO250" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -33880,10 +33887,10 @@
       <c r="AM251" s="3">
         <v>0</v>
       </c>
-      <c r="AN251" s="9" t="s">
+      <c r="AN251" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="AO251" s="9">
+      <c r="AO251" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34005,10 +34012,10 @@
       <c r="AM252" s="3">
         <v>0</v>
       </c>
-      <c r="AN252" s="9" t="s">
+      <c r="AN252" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="AO252" s="9">
+      <c r="AO252" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34130,10 +34137,10 @@
       <c r="AM253" s="3">
         <v>0</v>
       </c>
-      <c r="AN253" s="9" t="s">
+      <c r="AN253" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="AO253" s="9">
+      <c r="AO253" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34255,10 +34262,10 @@
       <c r="AM254" s="3">
         <v>0</v>
       </c>
-      <c r="AN254" s="9" t="s">
+      <c r="AN254" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="AO254" s="9">
+      <c r="AO254" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34380,10 +34387,10 @@
       <c r="AM255" s="3">
         <v>0</v>
       </c>
-      <c r="AN255" s="9" t="s">
+      <c r="AN255" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="AO255" s="9">
+      <c r="AO255" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34505,10 +34512,10 @@
       <c r="AM256" s="3">
         <v>0</v>
       </c>
-      <c r="AN256" s="9" t="s">
+      <c r="AN256" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="AO256" s="9">
+      <c r="AO256" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34630,10 +34637,10 @@
       <c r="AM257" s="3">
         <v>0</v>
       </c>
-      <c r="AN257" s="9" t="s">
+      <c r="AN257" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="AO257" s="9">
+      <c r="AO257" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34755,10 +34762,10 @@
       <c r="AM258" s="3">
         <v>0</v>
       </c>
-      <c r="AN258" s="9" t="s">
+      <c r="AN258" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="AO258" s="9">
+      <c r="AO258" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -34880,10 +34887,10 @@
       <c r="AM259" s="3">
         <v>0</v>
       </c>
-      <c r="AN259" s="9" t="s">
+      <c r="AN259" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="AO259" s="9">
+      <c r="AO259" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35005,10 +35012,10 @@
       <c r="AM260" s="3">
         <v>0</v>
       </c>
-      <c r="AN260" s="9" t="s">
+      <c r="AN260" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="AO260" s="9">
+      <c r="AO260" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35130,10 +35137,10 @@
       <c r="AM261" s="3">
         <v>0</v>
       </c>
-      <c r="AN261" s="9" t="s">
+      <c r="AN261" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="AO261" s="9">
+      <c r="AO261" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35255,10 +35262,10 @@
       <c r="AM262" s="3">
         <v>0</v>
       </c>
-      <c r="AN262" s="9" t="s">
+      <c r="AN262" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="AO262" s="9">
+      <c r="AO262" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35380,10 +35387,10 @@
       <c r="AM263" s="3">
         <v>0</v>
       </c>
-      <c r="AN263" s="9" t="s">
+      <c r="AN263" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="AO263" s="9">
+      <c r="AO263" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35505,10 +35512,10 @@
       <c r="AM264" s="3">
         <v>0</v>
       </c>
-      <c r="AN264" s="9" t="s">
+      <c r="AN264" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="AO264" s="9">
+      <c r="AO264" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35630,10 +35637,10 @@
       <c r="AM265" s="3">
         <v>0</v>
       </c>
-      <c r="AN265" s="9" t="s">
+      <c r="AN265" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="AO265" s="9">
+      <c r="AO265" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35755,10 +35762,10 @@
       <c r="AM266" s="3">
         <v>0</v>
       </c>
-      <c r="AN266" s="9" t="s">
+      <c r="AN266" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="AO266" s="9">
+      <c r="AO266" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -35880,10 +35887,10 @@
       <c r="AM267" s="3">
         <v>0</v>
       </c>
-      <c r="AN267" s="9" t="s">
+      <c r="AN267" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="AO267" s="9">
+      <c r="AO267" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36005,10 +36012,10 @@
       <c r="AM268" s="3">
         <v>0</v>
       </c>
-      <c r="AN268" s="9" t="s">
+      <c r="AN268" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="AO268" s="9">
+      <c r="AO268" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36130,10 +36137,10 @@
       <c r="AM269" s="3">
         <v>0</v>
       </c>
-      <c r="AN269" s="9" t="s">
+      <c r="AN269" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="AO269" s="9">
+      <c r="AO269" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36255,10 +36262,10 @@
       <c r="AM270" s="3">
         <v>0</v>
       </c>
-      <c r="AN270" s="9" t="s">
+      <c r="AN270" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="AO270" s="9">
+      <c r="AO270" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36380,10 +36387,10 @@
       <c r="AM271" s="3">
         <v>0</v>
       </c>
-      <c r="AN271" s="9" t="s">
+      <c r="AN271" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="AO271" s="9">
+      <c r="AO271" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36505,10 +36512,10 @@
       <c r="AM272" s="3">
         <v>0</v>
       </c>
-      <c r="AN272" s="9" t="s">
+      <c r="AN272" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="AO272" s="9">
+      <c r="AO272" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36630,10 +36637,10 @@
       <c r="AM273" s="3">
         <v>0</v>
       </c>
-      <c r="AN273" s="9" t="s">
+      <c r="AN273" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="AO273" s="9">
+      <c r="AO273" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36755,10 +36762,10 @@
       <c r="AM274" s="3">
         <v>0</v>
       </c>
-      <c r="AN274" s="9" t="s">
+      <c r="AN274" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="AO274" s="9">
+      <c r="AO274" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -36880,10 +36887,10 @@
       <c r="AM275" s="3">
         <v>0</v>
       </c>
-      <c r="AN275" s="9" t="s">
+      <c r="AN275" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="AO275" s="9">
+      <c r="AO275" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37005,10 +37012,10 @@
       <c r="AM276" s="3">
         <v>0</v>
       </c>
-      <c r="AN276" s="9" t="s">
+      <c r="AN276" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="AO276" s="9">
+      <c r="AO276" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37130,10 +37137,10 @@
       <c r="AM277" s="3">
         <v>0</v>
       </c>
-      <c r="AN277" s="9" t="s">
+      <c r="AN277" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="AO277" s="9">
+      <c r="AO277" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37255,10 +37262,10 @@
       <c r="AM278" s="3">
         <v>0</v>
       </c>
-      <c r="AN278" s="9" t="s">
+      <c r="AN278" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="AO278" s="9">
+      <c r="AO278" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37380,10 +37387,10 @@
       <c r="AM279" s="3">
         <v>0</v>
       </c>
-      <c r="AN279" s="9" t="s">
+      <c r="AN279" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="AO279" s="9">
+      <c r="AO279" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37505,10 +37512,10 @@
       <c r="AM280" s="3">
         <v>0</v>
       </c>
-      <c r="AN280" s="9" t="s">
+      <c r="AN280" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="AO280" s="9">
+      <c r="AO280" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37630,10 +37637,10 @@
       <c r="AM281" s="3">
         <v>0</v>
       </c>
-      <c r="AN281" s="9" t="s">
+      <c r="AN281" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="AO281" s="9">
+      <c r="AO281" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37755,10 +37762,10 @@
       <c r="AM282" s="3">
         <v>0</v>
       </c>
-      <c r="AN282" s="9" t="s">
+      <c r="AN282" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="AO282" s="9">
+      <c r="AO282" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -37880,10 +37887,10 @@
       <c r="AM283" s="3">
         <v>0</v>
       </c>
-      <c r="AN283" s="9" t="s">
+      <c r="AN283" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="AO283" s="9">
+      <c r="AO283" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38005,10 +38012,10 @@
       <c r="AM284" s="3">
         <v>0</v>
       </c>
-      <c r="AN284" s="9" t="s">
+      <c r="AN284" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="AO284" s="9">
+      <c r="AO284" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38130,10 +38137,10 @@
       <c r="AM285" s="3">
         <v>0</v>
       </c>
-      <c r="AN285" s="9" t="s">
+      <c r="AN285" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="AO285" s="9">
+      <c r="AO285" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38255,10 +38262,10 @@
       <c r="AM286" s="3">
         <v>0</v>
       </c>
-      <c r="AN286" s="9" t="s">
+      <c r="AN286" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="AO286" s="9">
+      <c r="AO286" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38380,10 +38387,10 @@
       <c r="AM287" s="3">
         <v>0</v>
       </c>
-      <c r="AN287" s="9" t="s">
+      <c r="AN287" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="AO287" s="9">
+      <c r="AO287" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38505,10 +38512,10 @@
       <c r="AM288" s="3">
         <v>0</v>
       </c>
-      <c r="AN288" s="9" t="s">
+      <c r="AN288" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="AO288" s="9">
+      <c r="AO288" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38630,10 +38637,10 @@
       <c r="AM289" s="3">
         <v>0</v>
       </c>
-      <c r="AN289" s="9" t="s">
+      <c r="AN289" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AO289" s="9">
+      <c r="AO289" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38755,10 +38762,10 @@
       <c r="AM290" s="3">
         <v>0</v>
       </c>
-      <c r="AN290" s="9" t="s">
+      <c r="AN290" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AO290" s="9">
+      <c r="AO290" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -38880,10 +38887,10 @@
       <c r="AM291" s="3">
         <v>0</v>
       </c>
-      <c r="AN291" s="9" t="s">
+      <c r="AN291" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AO291" s="9">
+      <c r="AO291" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39005,10 +39012,10 @@
       <c r="AM292" s="3">
         <v>0</v>
       </c>
-      <c r="AN292" s="9" t="s">
+      <c r="AN292" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AO292" s="9">
+      <c r="AO292" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39130,10 +39137,10 @@
       <c r="AM293" s="3">
         <v>0</v>
       </c>
-      <c r="AN293" s="9" t="s">
+      <c r="AN293" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AO293" s="9">
+      <c r="AO293" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39255,10 +39262,10 @@
       <c r="AM294" s="3">
         <v>0</v>
       </c>
-      <c r="AN294" s="9" t="s">
+      <c r="AN294" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AO294" s="9">
+      <c r="AO294" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39380,10 +39387,10 @@
       <c r="AM295" s="3">
         <v>0</v>
       </c>
-      <c r="AN295" s="9" t="s">
+      <c r="AN295" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="AO295" s="9">
+      <c r="AO295" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39505,10 +39512,10 @@
       <c r="AM296" s="3">
         <v>0</v>
       </c>
-      <c r="AN296" s="9" t="s">
+      <c r="AN296" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="AO296" s="9">
+      <c r="AO296" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39630,10 +39637,10 @@
       <c r="AM297" s="3">
         <v>0</v>
       </c>
-      <c r="AN297" s="9" t="s">
+      <c r="AN297" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="AO297" s="9">
+      <c r="AO297" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39755,10 +39762,10 @@
       <c r="AM298" s="3">
         <v>0</v>
       </c>
-      <c r="AN298" s="9" t="s">
+      <c r="AN298" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="AO298" s="9">
+      <c r="AO298" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -39880,10 +39887,10 @@
       <c r="AM299" s="3">
         <v>0</v>
       </c>
-      <c r="AN299" s="9" t="s">
+      <c r="AN299" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="AO299" s="9">
+      <c r="AO299" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40005,10 +40012,10 @@
       <c r="AM300" s="3">
         <v>0</v>
       </c>
-      <c r="AN300" s="9" t="s">
+      <c r="AN300" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="AO300" s="9">
+      <c r="AO300" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40130,10 +40137,10 @@
       <c r="AM301" s="3">
         <v>0</v>
       </c>
-      <c r="AN301" s="9" t="s">
+      <c r="AN301" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="AO301" s="9">
+      <c r="AO301" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40255,10 +40262,10 @@
       <c r="AM302" s="3">
         <v>0</v>
       </c>
-      <c r="AN302" s="9" t="s">
+      <c r="AN302" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="AO302" s="9">
+      <c r="AO302" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40380,10 +40387,10 @@
       <c r="AM303" s="3">
         <v>0</v>
       </c>
-      <c r="AN303" s="9" t="s">
+      <c r="AN303" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="AO303" s="9">
+      <c r="AO303" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40505,10 +40512,10 @@
       <c r="AM304" s="3">
         <v>0</v>
       </c>
-      <c r="AN304" s="9" t="s">
+      <c r="AN304" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="AO304" s="9">
+      <c r="AO304" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40630,10 +40637,10 @@
       <c r="AM305" s="3">
         <v>0</v>
       </c>
-      <c r="AN305" s="9" t="s">
+      <c r="AN305" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="AO305" s="9">
+      <c r="AO305" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40755,10 +40762,10 @@
       <c r="AM306" s="3">
         <v>0</v>
       </c>
-      <c r="AN306" s="9" t="s">
+      <c r="AN306" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="AO306" s="9">
+      <c r="AO306" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -40880,10 +40887,10 @@
       <c r="AM307" s="3">
         <v>0</v>
       </c>
-      <c r="AN307" s="9" t="s">
+      <c r="AN307" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="AO307" s="9">
+      <c r="AO307" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41005,10 +41012,10 @@
       <c r="AM308" s="3">
         <v>0</v>
       </c>
-      <c r="AN308" s="9" t="s">
+      <c r="AN308" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="AO308" s="9">
+      <c r="AO308" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41130,10 +41137,10 @@
       <c r="AM309" s="3">
         <v>0</v>
       </c>
-      <c r="AN309" s="9" t="s">
+      <c r="AN309" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="AO309" s="9">
+      <c r="AO309" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41255,10 +41262,10 @@
       <c r="AM310" s="3">
         <v>0</v>
       </c>
-      <c r="AN310" s="9" t="s">
+      <c r="AN310" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="AO310" s="9">
+      <c r="AO310" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41380,10 +41387,10 @@
       <c r="AM311" s="3">
         <v>0</v>
       </c>
-      <c r="AN311" s="9" t="s">
+      <c r="AN311" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="AO311" s="9">
+      <c r="AO311" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41505,10 +41512,10 @@
       <c r="AM312" s="3">
         <v>0</v>
       </c>
-      <c r="AN312" s="9" t="s">
+      <c r="AN312" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="AO312" s="9">
+      <c r="AO312" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41630,10 +41637,10 @@
       <c r="AM313" s="3">
         <v>0</v>
       </c>
-      <c r="AN313" s="9" t="s">
+      <c r="AN313" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="AO313" s="9">
+      <c r="AO313" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41755,10 +41762,10 @@
       <c r="AM314" s="3">
         <v>0</v>
       </c>
-      <c r="AN314" s="9" t="s">
+      <c r="AN314" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="AO314" s="9">
+      <c r="AO314" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -41880,10 +41887,10 @@
       <c r="AM315" s="3">
         <v>0</v>
       </c>
-      <c r="AN315" s="9" t="s">
+      <c r="AN315" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO315" s="9">
+      <c r="AO315" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42005,10 +42012,10 @@
       <c r="AM316" s="3">
         <v>0</v>
       </c>
-      <c r="AN316" s="9" t="s">
+      <c r="AN316" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO316" s="9">
+      <c r="AO316" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42130,10 +42137,10 @@
       <c r="AM317" s="3">
         <v>0</v>
       </c>
-      <c r="AN317" s="9" t="s">
+      <c r="AN317" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO317" s="9">
+      <c r="AO317" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42255,10 +42262,10 @@
       <c r="AM318" s="3">
         <v>0</v>
       </c>
-      <c r="AN318" s="9" t="s">
+      <c r="AN318" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO318" s="9">
+      <c r="AO318" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42380,10 +42387,10 @@
       <c r="AM319" s="3">
         <v>0</v>
       </c>
-      <c r="AN319" s="9" t="s">
+      <c r="AN319" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO319" s="9">
+      <c r="AO319" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42505,10 +42512,10 @@
       <c r="AM320" s="3">
         <v>0</v>
       </c>
-      <c r="AN320" s="9" t="s">
+      <c r="AN320" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO320" s="9">
+      <c r="AO320" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42630,10 +42637,10 @@
       <c r="AM321" s="3">
         <v>0</v>
       </c>
-      <c r="AN321" s="9" t="s">
+      <c r="AN321" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO321" s="9">
+      <c r="AO321" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42755,10 +42762,10 @@
       <c r="AM322" s="3">
         <v>0</v>
       </c>
-      <c r="AN322" s="9" t="s">
+      <c r="AN322" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO322" s="9">
+      <c r="AO322" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -42880,10 +42887,10 @@
       <c r="AM323" s="3">
         <v>0</v>
       </c>
-      <c r="AN323" s="9" t="s">
+      <c r="AN323" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AO323" s="9">
+      <c r="AO323" s="10">
         <v>-1</v>
       </c>
     </row>

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
@@ -2714,8 +2714,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="P274" workbookViewId="0">
+      <selection activeCell="AP315" sqref="AP315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3215,9 +3215,7 @@
       <c r="AO5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AP5">
-        <v>950</v>
-      </c>
+      <c r="AP5"/>
       <c r="AQ5" s="5" t="s">
         <v>85</v>
       </c>
@@ -3346,9 +3344,7 @@
       <c r="AO6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AP6">
-        <v>952</v>
-      </c>
+      <c r="AP6"/>
       <c r="AQ6" s="3" t="s">
         <v>90</v>
       </c>
@@ -4245,9 +4241,7 @@
       <c r="AO13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AP13">
-        <v>954</v>
-      </c>
+      <c r="AP13"/>
       <c r="AQ13" s="3" t="s">
         <v>120</v>
       </c>
@@ -5144,9 +5138,7 @@
       <c r="AO20" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AP20">
-        <v>956</v>
-      </c>
+      <c r="AP20"/>
       <c r="AQ20" s="3" t="s">
         <v>154</v>
       </c>
@@ -5275,9 +5267,7 @@
       <c r="AO21" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AP21">
-        <v>958</v>
-      </c>
+      <c r="AP21"/>
       <c r="AQ21" s="3" t="s">
         <v>158</v>
       </c>
@@ -6302,9 +6292,7 @@
       <c r="AO29" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AP29">
-        <v>960</v>
-      </c>
+      <c r="AP29"/>
       <c r="AQ29" s="3" t="s">
         <v>193</v>
       </c>
@@ -6689,9 +6677,7 @@
       <c r="AO32" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AP32">
-        <v>962</v>
-      </c>
+      <c r="AP32"/>
       <c r="AQ32" s="3" t="s">
         <v>206</v>
       </c>
@@ -6820,9 +6806,7 @@
       <c r="AO33" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="AP33">
-        <v>964</v>
-      </c>
+      <c r="AP33"/>
       <c r="AQ33" s="3" t="s">
         <v>210</v>
       </c>
@@ -7591,9 +7575,7 @@
       <c r="AO39" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AP39">
-        <v>966</v>
-      </c>
+      <c r="AP39"/>
       <c r="AQ39" s="3" t="s">
         <v>235</v>
       </c>
@@ -7722,9 +7704,7 @@
       <c r="AO40" s="8">
         <v>-1</v>
       </c>
-      <c r="AP40">
-        <v>968</v>
-      </c>
+      <c r="AP40"/>
       <c r="AQ40" s="3" t="s">
         <v>239</v>
       </c>
@@ -7853,9 +7833,7 @@
       <c r="AO41" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AP41">
-        <v>970</v>
-      </c>
+      <c r="AP41"/>
       <c r="AQ41" s="3" t="s">
         <v>244</v>
       </c>
@@ -7984,9 +7962,7 @@
       <c r="AO42" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AP42" s="3">
-        <v>972</v>
-      </c>
+      <c r="AP42" s="3"/>
       <c r="AQ42" s="3" t="s">
         <v>249</v>
       </c>
@@ -8755,9 +8731,7 @@
       <c r="AO48" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AP48">
-        <v>974</v>
-      </c>
+      <c r="AP48"/>
       <c r="AQ48" s="3" t="s">
         <v>267</v>
       </c>
@@ -8886,9 +8860,7 @@
       <c r="AO49" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="AP49">
-        <v>976</v>
-      </c>
+      <c r="AP49"/>
       <c r="AQ49" s="3" t="s">
         <v>272</v>
       </c>
@@ -9145,9 +9117,7 @@
       <c r="AO51" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AP51">
-        <v>978</v>
-      </c>
+      <c r="AP51"/>
       <c r="AQ51" s="3" t="s">
         <v>282</v>
       </c>
@@ -9276,9 +9246,7 @@
       <c r="AO52" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="AP52">
-        <v>980</v>
-      </c>
+      <c r="AP52"/>
       <c r="AQ52" s="3" t="s">
         <v>286</v>
       </c>
@@ -9407,9 +9375,7 @@
       <c r="AO53" s="8">
         <v>-1</v>
       </c>
-      <c r="AP53">
-        <v>982</v>
-      </c>
+      <c r="AP53"/>
       <c r="AQ53" s="3" t="s">
         <v>288</v>
       </c>
@@ -9666,9 +9632,7 @@
       <c r="AO55" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="AP55">
-        <v>984</v>
-      </c>
+      <c r="AP55"/>
       <c r="AQ55" s="3" t="s">
         <v>298</v>
       </c>
@@ -9925,9 +9889,7 @@
       <c r="AO57" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="AP57">
-        <v>986</v>
-      </c>
+      <c r="AP57"/>
       <c r="AQ57" s="3" t="s">
         <v>305</v>
       </c>
@@ -10056,9 +10018,7 @@
       <c r="AO58" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="AP58">
-        <v>988</v>
-      </c>
+      <c r="AP58"/>
       <c r="AQ58" s="3" t="s">
         <v>309</v>
       </c>
@@ -10571,9 +10531,7 @@
       <c r="AO62" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="AP62">
-        <v>990</v>
-      </c>
+      <c r="AP62"/>
       <c r="AQ62" s="3" t="s">
         <v>328</v>
       </c>
@@ -10702,9 +10660,7 @@
       <c r="AO63" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="AP63">
-        <v>992</v>
-      </c>
+      <c r="AP63"/>
       <c r="AQ63" s="3" t="s">
         <v>330</v>
       </c>
@@ -10961,9 +10917,7 @@
       <c r="AO65" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="AP65">
-        <v>994</v>
-      </c>
+      <c r="AP65"/>
       <c r="AQ65" s="3" t="s">
         <v>342</v>
       </c>
@@ -11220,9 +11174,7 @@
       <c r="AO67" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="AP67">
-        <v>996</v>
-      </c>
+      <c r="AP67"/>
       <c r="AQ67" s="3" t="s">
         <v>350</v>
       </c>
@@ -12887,9 +12839,7 @@
       <c r="AO80" s="8">
         <v>-1</v>
       </c>
-      <c r="AP80">
-        <v>998</v>
-      </c>
+      <c r="AP80"/>
       <c r="AQ80" s="3" t="s">
         <v>394</v>
       </c>

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\xiastart_roguelike\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78389ED-1D2D-4B9A-B0BB-2BF9C30F49DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AC0B6-B3E8-43F8-A46E-9CD1D32BBBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="3920" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="541">
   <si>
     <t>Id</t>
   </si>
@@ -1670,12 +1670,20 @@
     <t>L_string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>南贤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北丑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1731,6 +1739,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1772,7 +1787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,6 +1807,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2146,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+    <sheetView tabSelected="1" topLeftCell="AM66" workbookViewId="0">
+      <selection activeCell="AQ80" sqref="AQ80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11984,8 +12000,8 @@
       <c r="AO78" s="5">
         <v>-1</v>
       </c>
-      <c r="AQ78" s="4" t="s">
-        <v>378</v>
+      <c r="AQ78" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
@@ -12112,8 +12128,8 @@
       <c r="AO79" s="5">
         <v>-1</v>
       </c>
-      <c r="AQ79" s="4" t="s">
-        <v>380</v>
+      <c r="AQ79" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/人物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\xiastart_roguelike\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AC0B6-B3E8-43F8-A46E-9CD1D32BBBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612B0A9F-1EE6-4080-B68E-DB7659FBBDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="3920" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="2850" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>42,900</t>
-  </si>
-  <si>
-    <t>8,13|22,11|22,10</t>
   </si>
   <si>
     <t>定闲</t>
@@ -1676,6 +1673,10 @@
   </si>
   <si>
     <t>北丑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,13|12,11|22,10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2162,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM66" workbookViewId="0">
-      <selection activeCell="AQ80" sqref="AQ80"/>
+    <sheetView tabSelected="1" topLeftCell="AM15" workbookViewId="0">
+      <selection activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2176,10 +2177,10 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -2315,119 +2316,119 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2441,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2489,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AB4" t="s">
         <v>18</v>
@@ -2504,28 +2505,28 @@
         <v>21</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG4" t="s">
         <v>22</v>
       </c>
       <c r="AH4" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="AI4" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="AK4" t="s">
         <v>23</v>
       </c>
       <c r="AN4" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AP4" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="AQ4" t="s">
         <v>24</v>
@@ -5341,10 +5342,10 @@
         <v>166</v>
       </c>
       <c r="AO26" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AQ26" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -5358,10 +5359,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -5466,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="AN27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO27" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AO27" s="5" t="s">
+      <c r="AQ27" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -5486,10 +5487,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -5594,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="AN28" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO28" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AQ28" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -5614,10 +5615,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -5722,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="AN29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO29" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AO29" s="5" t="s">
+      <c r="AQ29" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="AQ29" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -5742,10 +5743,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -5850,13 +5851,13 @@
         <v>0</v>
       </c>
       <c r="AN30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO30" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AO30" s="5" t="s">
+      <c r="AQ30" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="AQ30" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -5870,10 +5871,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -5978,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="AN31" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="AO31" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AQ31" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -5998,10 +5999,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -6106,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="AN32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO32" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AO32" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="AQ32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
@@ -6126,10 +6127,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -6234,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="AN33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AO33" s="5" t="s">
+      <c r="AQ33" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="AQ33" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
@@ -6254,7 +6255,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>69</v>
@@ -6362,13 +6363,13 @@
         <v>0</v>
       </c>
       <c r="AN34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO34" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AO34" s="5" t="s">
+      <c r="AQ34" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="AQ34" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -6382,10 +6383,10 @@
         <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -6490,13 +6491,13 @@
         <v>0</v>
       </c>
       <c r="AN35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO35" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="AO35" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AQ35" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
@@ -6510,10 +6511,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -6618,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="AN36" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO36" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AO36" s="5" t="s">
+      <c r="AQ36" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="AQ36" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
@@ -6638,10 +6639,10 @@
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -6746,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="AN37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO37" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AO37" s="5" t="s">
+      <c r="AQ37" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="AQ37" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
@@ -6766,10 +6767,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -6874,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="AN38" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO38" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AO38" s="5" t="s">
+      <c r="AQ38" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="AQ38" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
@@ -6894,10 +6895,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -7002,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="AN39" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO39" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AO39" s="5" t="s">
+      <c r="AQ39" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="AQ39" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -7022,10 +7023,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -7130,13 +7131,13 @@
         <v>0</v>
       </c>
       <c r="AN40" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO40" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AO40" s="5" t="s">
+      <c r="AQ40" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="AQ40" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
@@ -7150,10 +7151,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
@@ -7258,13 +7259,13 @@
         <v>0</v>
       </c>
       <c r="AN41" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO41" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="AO41" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AQ41" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -7278,10 +7279,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -7386,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="AN42" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO42" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AO42" s="5" t="s">
+      <c r="AQ42" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="AQ42" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -7406,10 +7407,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -7514,14 +7515,14 @@
         <v>0</v>
       </c>
       <c r="AN43" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO43" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="AO43" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -7535,10 +7536,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -7643,13 +7644,13 @@
         <v>0</v>
       </c>
       <c r="AN44" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO44" s="5">
         <v>-1</v>
       </c>
       <c r="AQ44" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
@@ -7663,10 +7664,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -7771,13 +7772,13 @@
         <v>0</v>
       </c>
       <c r="AN45" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO45" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="AO45" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AQ45" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -7791,10 +7792,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -7899,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO46" s="5">
         <v>-1</v>
       </c>
       <c r="AQ46" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -7919,10 +7920,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -8027,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="AN47" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO47" s="5">
         <v>-1</v>
       </c>
       <c r="AQ47" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
@@ -8047,10 +8048,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -8155,13 +8156,13 @@
         <v>0</v>
       </c>
       <c r="AN48" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO48" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AO48" s="5" t="s">
+      <c r="AQ48" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="AQ48" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
@@ -8175,10 +8176,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -8283,13 +8284,13 @@
         <v>0</v>
       </c>
       <c r="AN49" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO49" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="AO49" s="5" t="s">
+      <c r="AQ49" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="AQ49" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
@@ -8303,10 +8304,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -8411,13 +8412,13 @@
         <v>0</v>
       </c>
       <c r="AN50" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AO50" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AO50" s="5" t="s">
+      <c r="AQ50" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="AQ50" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -8431,10 +8432,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -8539,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="AN51" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO51" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AO51" s="5" t="s">
+      <c r="AQ51" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="AQ51" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -8559,10 +8560,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -8667,13 +8668,13 @@
         <v>0</v>
       </c>
       <c r="AN52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO52" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="AO52" s="5" t="s">
+      <c r="AQ52" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="AQ52" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
@@ -8687,10 +8688,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -8795,13 +8796,13 @@
         <v>0</v>
       </c>
       <c r="AN53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO53" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AO53" s="5" t="s">
+      <c r="AQ53" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="AQ53" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
@@ -8815,10 +8816,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -8923,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="AN54" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AO54" s="5">
         <v>-1</v>
       </c>
       <c r="AQ54" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
@@ -8943,10 +8944,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -9051,13 +9052,13 @@
         <v>0</v>
       </c>
       <c r="AN55" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO55" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AO55" s="5" t="s">
+      <c r="AQ55" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="AQ55" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
@@ -9071,10 +9072,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -9179,13 +9180,13 @@
         <v>0</v>
       </c>
       <c r="AN56" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO56" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="AO56" s="5" t="s">
+      <c r="AQ56" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="AQ56" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
@@ -9199,10 +9200,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -9307,13 +9308,13 @@
         <v>0</v>
       </c>
       <c r="AN57" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO57" s="5">
         <v>-1</v>
       </c>
       <c r="AQ57" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
@@ -9327,10 +9328,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -9435,13 +9436,13 @@
         <v>0</v>
       </c>
       <c r="AN58" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO58" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AO58" s="5" t="s">
+      <c r="AQ58" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="AQ58" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
@@ -9455,10 +9456,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -9563,13 +9564,13 @@
         <v>0</v>
       </c>
       <c r="AN59" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO59" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="AO59" s="5" t="s">
+      <c r="AQ59" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="AQ59" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -9583,10 +9584,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -9691,13 +9692,13 @@
         <v>0</v>
       </c>
       <c r="AN60" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AO60" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ60" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="AQ60" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
@@ -9711,10 +9712,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -9819,13 +9820,13 @@
         <v>0</v>
       </c>
       <c r="AN61" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO61" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AO61" s="5" t="s">
+      <c r="AQ61" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="AQ61" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
@@ -9839,10 +9840,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -9947,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="AN62" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO62" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AO62" s="5" t="s">
+      <c r="AQ62" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="AQ62" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
@@ -9967,10 +9968,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -10075,13 +10076,13 @@
         <v>0</v>
       </c>
       <c r="AN63" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO63" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AO63" s="5" t="s">
+      <c r="AQ63" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="AQ63" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
@@ -10095,10 +10096,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -10203,13 +10204,13 @@
         <v>0</v>
       </c>
       <c r="AN64" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO64" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AO64" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="AQ64" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
@@ -10223,10 +10224,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -10331,13 +10332,13 @@
         <v>0</v>
       </c>
       <c r="AN65" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO65" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AO65" s="5" t="s">
+      <c r="AQ65" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="AQ65" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
@@ -10351,10 +10352,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -10459,13 +10460,13 @@
         <v>0</v>
       </c>
       <c r="AN66" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO66" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="AO66" s="5" t="s">
+      <c r="AQ66" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="AQ66" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
@@ -10479,10 +10480,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
@@ -10587,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="AN67" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO67" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="AO67" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="AQ67" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
@@ -10607,10 +10608,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -10715,13 +10716,13 @@
         <v>0</v>
       </c>
       <c r="AN68" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO68" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="AO68" s="5" t="s">
+      <c r="AQ68" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="AQ68" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
@@ -10735,10 +10736,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
@@ -10843,13 +10844,13 @@
         <v>0</v>
       </c>
       <c r="AN69" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AO69" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="AO69" s="5" t="s">
+      <c r="AQ69" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="AQ69" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
@@ -10863,10 +10864,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
@@ -10971,13 +10972,13 @@
         <v>0</v>
       </c>
       <c r="AN70" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO70" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="AO70" s="5" t="s">
+      <c r="AQ70" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="AQ70" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
@@ -10991,10 +10992,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -11099,13 +11100,13 @@
         <v>0</v>
       </c>
       <c r="AN71" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO71" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AQ71" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="AO71" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AQ71" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
@@ -11119,10 +11120,10 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
@@ -11227,13 +11228,13 @@
         <v>0</v>
       </c>
       <c r="AN72" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AO72" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AO72" s="5" t="s">
+      <c r="AQ72" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="AQ72" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
@@ -11247,10 +11248,10 @@
         <v>5</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
@@ -11355,13 +11356,13 @@
         <v>0</v>
       </c>
       <c r="AN73" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO73" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="AO73" s="5" t="s">
+      <c r="AQ73" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="AQ73" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
@@ -11375,10 +11376,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
@@ -11483,13 +11484,13 @@
         <v>0</v>
       </c>
       <c r="AN74" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AO74" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ74" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="AQ74" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
@@ -11503,10 +11504,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
@@ -11611,13 +11612,13 @@
         <v>0</v>
       </c>
       <c r="AN75" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO75" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="AO75" s="5" t="s">
+      <c r="AQ75" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="AQ75" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
@@ -11631,10 +11632,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
@@ -11739,13 +11740,13 @@
         <v>0</v>
       </c>
       <c r="AN76" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO76" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="AO76" s="5" t="s">
+      <c r="AQ76" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="AQ76" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
@@ -11759,10 +11760,10 @@
         <v>9</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
@@ -11873,7 +11874,7 @@
         <v>-1</v>
       </c>
       <c r="AQ77" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
@@ -11887,10 +11888,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
@@ -11995,13 +11996,13 @@
         <v>0</v>
       </c>
       <c r="AN78" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO78" s="5">
         <v>-1</v>
       </c>
       <c r="AQ78" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
@@ -12015,10 +12016,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -12123,13 +12124,13 @@
         <v>0</v>
       </c>
       <c r="AN79" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO79" s="5">
         <v>-1</v>
       </c>
       <c r="AQ79" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
@@ -12143,10 +12144,10 @@
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
@@ -12251,13 +12252,13 @@
         <v>0</v>
       </c>
       <c r="AN80" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO80" s="5">
         <v>-1</v>
       </c>
       <c r="AQ80" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
@@ -12271,10 +12272,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -12385,7 +12386,7 @@
         <v>-1</v>
       </c>
       <c r="AQ81" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
@@ -12399,10 +12400,10 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
@@ -12507,13 +12508,13 @@
         <v>0</v>
       </c>
       <c r="AN82" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO82" s="5">
         <v>-1</v>
       </c>
       <c r="AQ82" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:43" ht="14.5" x14ac:dyDescent="0.4">
@@ -12527,10 +12528,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
@@ -12635,13 +12636,13 @@
         <v>0</v>
       </c>
       <c r="AN83" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO83" s="5">
         <v>-1</v>
       </c>
       <c r="AQ83" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
@@ -12655,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>69</v>
@@ -12763,13 +12764,13 @@
         <v>0</v>
       </c>
       <c r="AN84" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO84" s="5">
         <v>-1</v>
       </c>
       <c r="AQ84" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
@@ -12783,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>69</v>
@@ -12891,13 +12892,13 @@
         <v>0</v>
       </c>
       <c r="AN85" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO85" s="5">
         <v>-1</v>
       </c>
       <c r="AQ85" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
@@ -12911,10 +12912,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -13019,13 +13020,13 @@
         <v>0</v>
       </c>
       <c r="AN86" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO86" s="5">
         <v>-1</v>
       </c>
       <c r="AQ86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
@@ -13039,10 +13040,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F87" s="2">
         <v>0</v>
@@ -13147,13 +13148,13 @@
         <v>0</v>
       </c>
       <c r="AN87" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO87" s="5">
         <v>-1</v>
       </c>
       <c r="AQ87" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
@@ -13167,10 +13168,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
@@ -13275,13 +13276,13 @@
         <v>0</v>
       </c>
       <c r="AN88" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO88" s="5">
         <v>-1</v>
       </c>
       <c r="AQ88" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
@@ -13295,10 +13296,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -13403,13 +13404,13 @@
         <v>0</v>
       </c>
       <c r="AN89" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO89" s="5">
         <v>-1</v>
       </c>
       <c r="AQ89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
@@ -13423,10 +13424,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
@@ -13531,13 +13532,13 @@
         <v>0</v>
       </c>
       <c r="AN90" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO90" s="5">
         <v>-1</v>
       </c>
       <c r="AQ90" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
@@ -13551,10 +13552,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
@@ -13659,13 +13660,13 @@
         <v>0</v>
       </c>
       <c r="AN91" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO91" s="5">
         <v>-1</v>
       </c>
       <c r="AQ91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
@@ -13679,10 +13680,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
@@ -13787,13 +13788,13 @@
         <v>0</v>
       </c>
       <c r="AN92" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO92" s="5">
         <v>-1</v>
       </c>
       <c r="AQ92" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
@@ -13807,10 +13808,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F93" s="2">
         <v>0</v>
@@ -13915,13 +13916,13 @@
         <v>0</v>
       </c>
       <c r="AN93" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO93" s="5">
         <v>-1</v>
       </c>
       <c r="AQ93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
@@ -13935,10 +13936,10 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
@@ -14043,13 +14044,13 @@
         <v>0</v>
       </c>
       <c r="AN94" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO94" s="5">
         <v>-1</v>
       </c>
       <c r="AQ94" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
@@ -14063,10 +14064,10 @@
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F95" s="2">
         <v>0</v>
@@ -14171,13 +14172,13 @@
         <v>0</v>
       </c>
       <c r="AN95" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO95" s="5">
         <v>-1</v>
       </c>
       <c r="AQ95" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
@@ -14191,10 +14192,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F96" s="2">
         <v>0</v>
@@ -14299,13 +14300,13 @@
         <v>0</v>
       </c>
       <c r="AN96" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO96" s="5">
         <v>-1</v>
       </c>
       <c r="AQ96" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
@@ -14319,10 +14320,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F97" s="2">
         <v>0</v>
@@ -14427,13 +14428,13 @@
         <v>0</v>
       </c>
       <c r="AN97" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO97" s="5">
         <v>-1</v>
       </c>
       <c r="AQ97" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
@@ -14447,10 +14448,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F98" s="2">
         <v>0</v>
@@ -14555,13 +14556,13 @@
         <v>0</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO98" s="5">
         <v>-1</v>
       </c>
       <c r="AQ98" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
@@ -14575,10 +14576,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F99" s="2">
         <v>0</v>
@@ -14683,13 +14684,13 @@
         <v>0</v>
       </c>
       <c r="AN99" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO99" s="5">
         <v>-1</v>
       </c>
       <c r="AQ99" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
@@ -14703,10 +14704,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
@@ -14811,13 +14812,13 @@
         <v>0</v>
       </c>
       <c r="AN100" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO100" s="5">
         <v>-1</v>
       </c>
       <c r="AQ100" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
@@ -14831,10 +14832,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -14939,13 +14940,13 @@
         <v>0</v>
       </c>
       <c r="AN101" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO101" s="5">
         <v>-1</v>
       </c>
       <c r="AQ101" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
@@ -14959,10 +14960,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
@@ -15067,13 +15068,13 @@
         <v>0</v>
       </c>
       <c r="AN102" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO102" s="5">
         <v>-1</v>
       </c>
       <c r="AQ102" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
@@ -15087,10 +15088,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -15195,13 +15196,13 @@
         <v>0</v>
       </c>
       <c r="AN103" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO103" s="5">
         <v>-1</v>
       </c>
       <c r="AQ103" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
@@ -15215,10 +15216,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -15323,13 +15324,13 @@
         <v>0</v>
       </c>
       <c r="AN104" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO104" s="5">
         <v>-1</v>
       </c>
       <c r="AQ104" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
@@ -15343,10 +15344,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F105" s="2">
         <v>0</v>
@@ -15451,13 +15452,13 @@
         <v>0</v>
       </c>
       <c r="AN105" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO105" s="5">
         <v>-1</v>
       </c>
       <c r="AQ105" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.25">
@@ -15471,10 +15472,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
@@ -15579,13 +15580,13 @@
         <v>0</v>
       </c>
       <c r="AN106" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO106" s="5">
         <v>-1</v>
       </c>
       <c r="AQ106" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.25">
@@ -15599,10 +15600,10 @@
         <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F107" s="2">
         <v>0</v>
@@ -15707,13 +15708,13 @@
         <v>0</v>
       </c>
       <c r="AN107" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO107" s="5">
         <v>-1</v>
       </c>
       <c r="AQ107" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.25">
@@ -15727,10 +15728,10 @@
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
@@ -15835,13 +15836,13 @@
         <v>0</v>
       </c>
       <c r="AN108" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO108" s="5">
         <v>-1</v>
       </c>
       <c r="AQ108" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.25">
@@ -15855,10 +15856,10 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
@@ -15963,13 +15964,13 @@
         <v>0</v>
       </c>
       <c r="AN109" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO109" s="5">
         <v>-1</v>
       </c>
       <c r="AQ109" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.25">
@@ -15983,10 +15984,10 @@
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
@@ -16091,13 +16092,13 @@
         <v>0</v>
       </c>
       <c r="AN110" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO110" s="5">
         <v>-1</v>
       </c>
       <c r="AQ110" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.25">
@@ -16111,10 +16112,10 @@
         <v>5</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
@@ -16219,13 +16220,13 @@
         <v>0</v>
       </c>
       <c r="AN111" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO111" s="5">
         <v>-1</v>
       </c>
       <c r="AQ111" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.25">
@@ -16239,10 +16240,10 @@
         <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F112" s="2">
         <v>0</v>
@@ -16347,13 +16348,13 @@
         <v>0</v>
       </c>
       <c r="AN112" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO112" s="5">
         <v>-1</v>
       </c>
       <c r="AQ112" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:43" x14ac:dyDescent="0.25">
@@ -16367,10 +16368,10 @@
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
@@ -16475,13 +16476,13 @@
         <v>0</v>
       </c>
       <c r="AN113" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO113" s="5">
         <v>-1</v>
       </c>
       <c r="AQ113" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.25">
@@ -16495,10 +16496,10 @@
         <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F114" s="2">
         <v>0</v>
@@ -16603,13 +16604,13 @@
         <v>0</v>
       </c>
       <c r="AN114" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO114" s="5">
         <v>-1</v>
       </c>
       <c r="AQ114" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.25">
@@ -16623,10 +16624,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F115" s="2">
         <v>0</v>
@@ -16731,13 +16732,13 @@
         <v>0</v>
       </c>
       <c r="AN115" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO115" s="5">
         <v>-1</v>
       </c>
       <c r="AQ115" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.25">
@@ -16751,10 +16752,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
@@ -16859,13 +16860,13 @@
         <v>0</v>
       </c>
       <c r="AN116" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO116" s="5">
         <v>-1</v>
       </c>
       <c r="AQ116" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.25">
@@ -16879,10 +16880,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
@@ -16987,13 +16988,13 @@
         <v>0</v>
       </c>
       <c r="AN117" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO117" s="5">
         <v>-1</v>
       </c>
       <c r="AQ117" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.25">
@@ -17007,10 +17008,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -17115,13 +17116,13 @@
         <v>0</v>
       </c>
       <c r="AN118" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AO118" s="5">
         <v>-1</v>
       </c>
       <c r="AQ118" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.25">
@@ -17135,10 +17136,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F119" s="2">
         <v>0</v>
@@ -17243,13 +17244,13 @@
         <v>0</v>
       </c>
       <c r="AN119" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO119" s="5">
         <v>-1</v>
       </c>
       <c r="AQ119" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.25">
@@ -17263,10 +17264,10 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F120" s="2">
         <v>0</v>
@@ -17371,13 +17372,13 @@
         <v>0</v>
       </c>
       <c r="AN120" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO120" s="5">
         <v>-1</v>
       </c>
       <c r="AQ120" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="121" spans="1:43" x14ac:dyDescent="0.25">
@@ -17391,10 +17392,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
@@ -17499,13 +17500,13 @@
         <v>0</v>
       </c>
       <c r="AN121" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AO121" s="5">
         <v>-1</v>
       </c>
       <c r="AQ121" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="1:43" x14ac:dyDescent="0.25">
@@ -17519,10 +17520,10 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
@@ -17627,13 +17628,13 @@
         <v>0</v>
       </c>
       <c r="AN122" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO122" s="5">
         <v>-1</v>
       </c>
       <c r="AQ122" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:43" x14ac:dyDescent="0.25">
@@ -17647,10 +17648,10 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -17755,13 +17756,13 @@
         <v>0</v>
       </c>
       <c r="AN123" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO123" s="5">
         <v>-1</v>
       </c>
       <c r="AQ123" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:43" x14ac:dyDescent="0.25">
@@ -17775,10 +17776,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -17883,13 +17884,13 @@
         <v>0</v>
       </c>
       <c r="AN124" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO124" s="5">
         <v>-1</v>
       </c>
       <c r="AQ124" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:43" x14ac:dyDescent="0.25">
@@ -17903,10 +17904,10 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -18011,13 +18012,13 @@
         <v>0</v>
       </c>
       <c r="AN125" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO125" s="5">
         <v>-1</v>
       </c>
       <c r="AQ125" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.25">
@@ -18031,10 +18032,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -18139,13 +18140,13 @@
         <v>0</v>
       </c>
       <c r="AN126" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO126" s="5">
         <v>-1</v>
       </c>
       <c r="AQ126" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:43" x14ac:dyDescent="0.25">
@@ -18159,10 +18160,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
@@ -18267,13 +18268,13 @@
         <v>0</v>
       </c>
       <c r="AN127" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO127" s="5">
         <v>-1</v>
       </c>
       <c r="AQ127" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.25">
@@ -18287,10 +18288,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
@@ -18395,13 +18396,13 @@
         <v>0</v>
       </c>
       <c r="AN128" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO128" s="5">
         <v>-1</v>
       </c>
       <c r="AQ128" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.25">
@@ -18415,10 +18416,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
@@ -18523,13 +18524,13 @@
         <v>0</v>
       </c>
       <c r="AN129" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO129" s="5">
         <v>-1</v>
       </c>
       <c r="AQ129" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.25">
@@ -18543,10 +18544,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -18651,13 +18652,13 @@
         <v>0</v>
       </c>
       <c r="AN130" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO130" s="5">
         <v>-1</v>
       </c>
       <c r="AQ130" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:43" x14ac:dyDescent="0.25">
@@ -18671,10 +18672,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F131" s="2">
         <v>0</v>
@@ -18779,13 +18780,13 @@
         <v>0</v>
       </c>
       <c r="AN131" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO131" s="5">
         <v>-1</v>
       </c>
       <c r="AQ131" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.25">
@@ -18799,10 +18800,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
@@ -18907,13 +18908,13 @@
         <v>0</v>
       </c>
       <c r="AN132" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO132" s="5">
         <v>-1</v>
       </c>
       <c r="AQ132" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.25">
@@ -18927,10 +18928,10 @@
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F133" s="2">
         <v>0</v>
@@ -19035,13 +19036,13 @@
         <v>0</v>
       </c>
       <c r="AN133" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO133" s="5">
         <v>-1</v>
       </c>
       <c r="AQ133" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.25">
@@ -19055,10 +19056,10 @@
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F134" s="2">
         <v>0</v>
@@ -19163,13 +19164,13 @@
         <v>0</v>
       </c>
       <c r="AN134" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO134" s="5">
         <v>-1</v>
       </c>
       <c r="AQ134" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.25">
@@ -19183,10 +19184,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="F135" s="2">
         <v>0</v>
@@ -19291,13 +19292,13 @@
         <v>0</v>
       </c>
       <c r="AN135" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO135" s="5">
         <v>-1</v>
       </c>
       <c r="AQ135" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:43" x14ac:dyDescent="0.25">
@@ -19311,10 +19312,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -19419,13 +19420,13 @@
         <v>0</v>
       </c>
       <c r="AN136" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO136" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="AO136" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="AQ136" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="1:43" x14ac:dyDescent="0.25">
@@ -19439,10 +19440,10 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F137" s="2">
         <v>0</v>
@@ -19547,13 +19548,13 @@
         <v>0</v>
       </c>
       <c r="AN137" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO137" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ137" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:43" x14ac:dyDescent="0.25">
@@ -19567,10 +19568,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F138" s="2">
         <v>0</v>
@@ -19675,13 +19676,13 @@
         <v>0</v>
       </c>
       <c r="AN138" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO138" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ138" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:43" x14ac:dyDescent="0.25">
@@ -19695,10 +19696,10 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
@@ -19803,13 +19804,13 @@
         <v>0</v>
       </c>
       <c r="AN139" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AO139" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ139" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:43" x14ac:dyDescent="0.25">
@@ -19823,10 +19824,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>
@@ -19931,13 +19932,13 @@
         <v>0</v>
       </c>
       <c r="AN140" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO140" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ140" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:43" x14ac:dyDescent="0.25">
@@ -19951,10 +19952,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
@@ -20059,13 +20060,13 @@
         <v>0</v>
       </c>
       <c r="AN141" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO141" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ141" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.25">
@@ -20079,10 +20080,10 @@
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
@@ -20187,13 +20188,13 @@
         <v>0</v>
       </c>
       <c r="AN142" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO142" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ142" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="1:43" x14ac:dyDescent="0.25">
@@ -20207,10 +20208,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
@@ -20315,13 +20316,13 @@
         <v>0</v>
       </c>
       <c r="AN143" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AO143" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ143" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:43" x14ac:dyDescent="0.25">
@@ -20335,10 +20336,10 @@
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
@@ -20443,13 +20444,13 @@
         <v>0</v>
       </c>
       <c r="AN144" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO144" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ144" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="1:43" x14ac:dyDescent="0.25">
@@ -20463,10 +20464,10 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -20571,13 +20572,13 @@
         <v>0</v>
       </c>
       <c r="AN145" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO145" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ145" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="1:43" x14ac:dyDescent="0.25">
@@ -20591,10 +20592,10 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
@@ -20699,13 +20700,13 @@
         <v>0</v>
       </c>
       <c r="AN146" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO146" s="5">
         <v>-1</v>
       </c>
       <c r="AQ146" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:43" x14ac:dyDescent="0.25">
@@ -20719,10 +20720,10 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
@@ -20827,13 +20828,13 @@
         <v>0</v>
       </c>
       <c r="AN147" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO147" s="5">
         <v>-1</v>
       </c>
       <c r="AQ147" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:43" x14ac:dyDescent="0.25">
@@ -20847,10 +20848,10 @@
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
@@ -20955,13 +20956,13 @@
         <v>0</v>
       </c>
       <c r="AN148" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO148" s="5">
         <v>-1</v>
       </c>
       <c r="AQ148" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:43" x14ac:dyDescent="0.25">
@@ -20975,10 +20976,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F149" s="2">
         <v>0</v>
@@ -21083,13 +21084,13 @@
         <v>0</v>
       </c>
       <c r="AN149" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO149" s="5">
         <v>-1</v>
       </c>
       <c r="AQ149" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="1:43" x14ac:dyDescent="0.25">
@@ -21103,10 +21104,10 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -21211,13 +21212,13 @@
         <v>0</v>
       </c>
       <c r="AN150" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO150" s="5">
         <v>-1</v>
       </c>
       <c r="AQ150" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="1:43" x14ac:dyDescent="0.25">
@@ -21231,10 +21232,10 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
@@ -21339,13 +21340,13 @@
         <v>0</v>
       </c>
       <c r="AN151" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO151" s="5">
         <v>-1</v>
       </c>
       <c r="AQ151" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="1:43" x14ac:dyDescent="0.25">
@@ -21359,10 +21360,10 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -21467,13 +21468,13 @@
         <v>0</v>
       </c>
       <c r="AN152" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO152" s="5">
         <v>-1</v>
       </c>
       <c r="AQ152" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="153" spans="1:43" x14ac:dyDescent="0.25">
@@ -21487,10 +21488,10 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
@@ -21595,13 +21596,13 @@
         <v>0</v>
       </c>
       <c r="AN153" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO153" s="5">
         <v>-1</v>
       </c>
       <c r="AQ153" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:43" x14ac:dyDescent="0.25">
@@ -21615,10 +21616,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
@@ -21723,13 +21724,13 @@
         <v>0</v>
       </c>
       <c r="AN154" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO154" s="5">
         <v>-1</v>
       </c>
       <c r="AQ154" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:43" x14ac:dyDescent="0.25">
@@ -21743,10 +21744,10 @@
         <v>6</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
@@ -21851,13 +21852,13 @@
         <v>0</v>
       </c>
       <c r="AN155" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO155" s="5">
         <v>-1</v>
       </c>
       <c r="AQ155" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:43" x14ac:dyDescent="0.25">
@@ -21871,10 +21872,10 @@
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F156" s="2">
         <v>0</v>
@@ -21979,13 +21980,13 @@
         <v>0</v>
       </c>
       <c r="AN156" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO156" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="AO156" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="AQ156" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="1:43" x14ac:dyDescent="0.25">
@@ -21999,10 +22000,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
@@ -22107,13 +22108,13 @@
         <v>0</v>
       </c>
       <c r="AN157" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO157" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="AO157" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="AQ157" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="1:43" x14ac:dyDescent="0.25">
@@ -22127,10 +22128,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -22235,13 +22236,13 @@
         <v>0</v>
       </c>
       <c r="AN158" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO158" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ158" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="1:43" x14ac:dyDescent="0.25">
@@ -22255,10 +22256,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F159" s="2">
         <v>0</v>
@@ -22363,13 +22364,13 @@
         <v>0</v>
       </c>
       <c r="AN159" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO159" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ159" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="1:43" x14ac:dyDescent="0.25">
@@ -22383,10 +22384,10 @@
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
@@ -22491,13 +22492,13 @@
         <v>0</v>
       </c>
       <c r="AN160" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO160" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ160" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="1:43" x14ac:dyDescent="0.25">
@@ -22511,10 +22512,10 @@
         <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F161" s="2">
         <v>0</v>
@@ -22619,13 +22620,13 @@
         <v>0</v>
       </c>
       <c r="AN161" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO161" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ161" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="1:43" x14ac:dyDescent="0.25">
@@ -22639,10 +22640,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F162" s="2">
         <v>0</v>
@@ -22747,13 +22748,13 @@
         <v>0</v>
       </c>
       <c r="AN162" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO162" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ162" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="1:43" x14ac:dyDescent="0.25">
@@ -22767,10 +22768,10 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
@@ -22875,13 +22876,13 @@
         <v>0</v>
       </c>
       <c r="AN163" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO163" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ163" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="1:43" x14ac:dyDescent="0.25">
@@ -22895,10 +22896,10 @@
         <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
@@ -23003,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="AN164" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO164" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ164" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:43" x14ac:dyDescent="0.25">
@@ -23023,10 +23024,10 @@
         <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F165" s="2">
         <v>0</v>
@@ -23131,13 +23132,13 @@
         <v>0</v>
       </c>
       <c r="AN165" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO165" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="AO165" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="AQ165" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="166" spans="1:43" x14ac:dyDescent="0.25">
@@ -23151,10 +23152,10 @@
         <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F166" s="2">
         <v>0</v>
@@ -23259,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="AN166" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO166" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="AO166" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="AQ166" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:43" x14ac:dyDescent="0.25">
@@ -23279,10 +23280,10 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F167" s="2">
         <v>0</v>
@@ -23387,13 +23388,13 @@
         <v>0</v>
       </c>
       <c r="AN167" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO167" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="AO167" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="AQ167" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:43" x14ac:dyDescent="0.25">
@@ -23407,10 +23408,10 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F168" s="2">
         <v>0</v>
@@ -23515,13 +23516,13 @@
         <v>0</v>
       </c>
       <c r="AN168" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO168" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="AO168" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="AQ168" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:43" x14ac:dyDescent="0.25">
@@ -23535,10 +23536,10 @@
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F169" s="2">
         <v>0</v>
@@ -23643,13 +23644,13 @@
         <v>0</v>
       </c>
       <c r="AN169" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO169" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ169" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:43" x14ac:dyDescent="0.25">
@@ -23663,10 +23664,10 @@
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F170" s="2">
         <v>0</v>
@@ -23771,13 +23772,13 @@
         <v>0</v>
       </c>
       <c r="AN170" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO170" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ170" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:43" x14ac:dyDescent="0.25">
@@ -23791,10 +23792,10 @@
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F171" s="2">
         <v>0</v>
@@ -23899,13 +23900,13 @@
         <v>0</v>
       </c>
       <c r="AN171" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO171" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ171" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:43" x14ac:dyDescent="0.25">
@@ -23919,10 +23920,10 @@
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F172" s="2">
         <v>0</v>
@@ -24027,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="AN172" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO172" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ172" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:43" x14ac:dyDescent="0.25">
@@ -24047,10 +24048,10 @@
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
@@ -24155,13 +24156,13 @@
         <v>0</v>
       </c>
       <c r="AN173" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO173" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ173" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:43" x14ac:dyDescent="0.25">
@@ -24175,10 +24176,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
@@ -24283,13 +24284,13 @@
         <v>0</v>
       </c>
       <c r="AN174" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO174" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ174" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:43" x14ac:dyDescent="0.25">
@@ -24303,10 +24304,10 @@
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
@@ -24411,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="AN175" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO175" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ175" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:43" x14ac:dyDescent="0.25">
@@ -24431,10 +24432,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
@@ -24539,13 +24540,13 @@
         <v>0</v>
       </c>
       <c r="AN176" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO176" s="5">
         <v>-1</v>
       </c>
       <c r="AQ176" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177" spans="1:43" x14ac:dyDescent="0.25">
@@ -24559,10 +24560,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F177" s="2">
         <v>0</v>
@@ -24667,13 +24668,13 @@
         <v>0</v>
       </c>
       <c r="AN177" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO177" s="5">
         <v>-1</v>
       </c>
       <c r="AQ177" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:43" x14ac:dyDescent="0.25">
@@ -24687,10 +24688,10 @@
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F178" s="2">
         <v>0</v>
@@ -24795,13 +24796,13 @@
         <v>0</v>
       </c>
       <c r="AN178" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AO178" s="5">
         <v>-1</v>
       </c>
       <c r="AQ178" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:43" x14ac:dyDescent="0.25">
@@ -24815,10 +24816,10 @@
         <v>4</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
@@ -24923,13 +24924,13 @@
         <v>0</v>
       </c>
       <c r="AN179" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO179" s="5">
         <v>-1</v>
       </c>
       <c r="AQ179" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:43" x14ac:dyDescent="0.25">
@@ -24943,10 +24944,10 @@
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F180" s="2">
         <v>0</v>
@@ -25051,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="AN180" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO180" s="5">
         <v>-1</v>
       </c>
       <c r="AQ180" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="181" spans="1:43" x14ac:dyDescent="0.25">
@@ -25071,10 +25072,10 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
@@ -25179,13 +25180,13 @@
         <v>0</v>
       </c>
       <c r="AN181" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO181" s="5">
         <v>-1</v>
       </c>
       <c r="AQ181" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:43" x14ac:dyDescent="0.25">
@@ -25199,10 +25200,10 @@
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
@@ -25307,13 +25308,13 @@
         <v>0</v>
       </c>
       <c r="AN182" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AO182" s="5">
         <v>-1</v>
       </c>
       <c r="AQ182" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:43" x14ac:dyDescent="0.25">
@@ -25327,10 +25328,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F183" s="2">
         <v>0</v>
@@ -25435,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="AN183" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AO183" s="5">
         <v>-1</v>
       </c>
       <c r="AQ183" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="184" spans="1:43" x14ac:dyDescent="0.25">
@@ -25455,10 +25456,10 @@
         <v>5</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F184" s="2">
         <v>0</v>
@@ -25563,13 +25564,13 @@
         <v>0</v>
       </c>
       <c r="AN184" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO184" s="5">
         <v>-1</v>
       </c>
       <c r="AQ184" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="185" spans="1:43" x14ac:dyDescent="0.25">
@@ -25583,10 +25584,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F185" s="2">
         <v>0</v>
@@ -25691,13 +25692,13 @@
         <v>0</v>
       </c>
       <c r="AN185" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO185" s="5">
         <v>-1</v>
       </c>
       <c r="AQ185" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="1:43" x14ac:dyDescent="0.25">
@@ -25711,10 +25712,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F186" s="2">
         <v>0</v>
@@ -25819,13 +25820,13 @@
         <v>0</v>
       </c>
       <c r="AN186" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO186" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AO186" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="AQ186" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:43" x14ac:dyDescent="0.25">
@@ -25839,10 +25840,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
@@ -25947,13 +25948,13 @@
         <v>0</v>
       </c>
       <c r="AN187" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO187" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AO187" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="AQ187" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:43" x14ac:dyDescent="0.25">
@@ -25967,10 +25968,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F188" s="2">
         <v>0</v>
@@ -26075,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="AN188" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO188" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AO188" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="AQ188" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:43" x14ac:dyDescent="0.25">
@@ -26095,10 +26096,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F189" s="2">
         <v>0</v>
@@ -26203,13 +26204,13 @@
         <v>0</v>
       </c>
       <c r="AN189" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO189" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ189" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:43" x14ac:dyDescent="0.25">
@@ -26223,10 +26224,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F190" s="2">
         <v>0</v>
@@ -26331,13 +26332,13 @@
         <v>0</v>
       </c>
       <c r="AN190" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO190" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ190" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="191" spans="1:43" x14ac:dyDescent="0.25">
@@ -26351,10 +26352,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F191" s="2">
         <v>0</v>
@@ -26459,13 +26460,13 @@
         <v>0</v>
       </c>
       <c r="AN191" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO191" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ191" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:43" x14ac:dyDescent="0.25">
@@ -26479,10 +26480,10 @@
         <v>5</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F192" s="2">
         <v>0</v>
@@ -26587,13 +26588,13 @@
         <v>0</v>
       </c>
       <c r="AN192" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AO192" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ192" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:43" x14ac:dyDescent="0.25">
@@ -26607,10 +26608,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F193" s="2">
         <v>0</v>
@@ -26715,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="AN193" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO193" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ193" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:43" x14ac:dyDescent="0.25">
@@ -26735,10 +26736,10 @@
         <v>5</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F194" s="2">
         <v>0</v>
@@ -26843,13 +26844,13 @@
         <v>0</v>
       </c>
       <c r="AN194" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO194" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ194" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:43" x14ac:dyDescent="0.25">
@@ -26863,10 +26864,10 @@
         <v>5</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F195" s="2">
         <v>0</v>
@@ -26971,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="AN195" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO195" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ195" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:43" x14ac:dyDescent="0.25">
@@ -26991,10 +26992,10 @@
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F196" s="2">
         <v>0</v>
@@ -27099,13 +27100,13 @@
         <v>0</v>
       </c>
       <c r="AN196" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO196" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AO196" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="AQ196" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="197" spans="1:43" x14ac:dyDescent="0.25">
@@ -27119,10 +27120,10 @@
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F197" s="2">
         <v>0</v>
@@ -27227,13 +27228,13 @@
         <v>0</v>
       </c>
       <c r="AN197" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO197" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AO197" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="AQ197" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="198" spans="1:43" x14ac:dyDescent="0.25">
@@ -27247,10 +27248,10 @@
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F198" s="2">
         <v>0</v>
@@ -27355,13 +27356,13 @@
         <v>0</v>
       </c>
       <c r="AN198" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AO198" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ198" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="199" spans="1:43" x14ac:dyDescent="0.25">
@@ -27375,10 +27376,10 @@
         <v>7</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F199" s="2">
         <v>0</v>
@@ -27483,13 +27484,13 @@
         <v>0</v>
       </c>
       <c r="AN199" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AO199" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ199" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:43" x14ac:dyDescent="0.25">
@@ -27503,10 +27504,10 @@
         <v>7</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F200" s="2">
         <v>0</v>
@@ -27611,13 +27612,13 @@
         <v>0</v>
       </c>
       <c r="AN200" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AO200" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ200" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="201" spans="1:43" x14ac:dyDescent="0.25">
@@ -27631,10 +27632,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F201" s="2">
         <v>0</v>
@@ -27739,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="AN201" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO201" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ201" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202" spans="1:43" x14ac:dyDescent="0.25">
@@ -27759,10 +27760,10 @@
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F202" s="2">
         <v>0</v>
@@ -27867,13 +27868,13 @@
         <v>0</v>
       </c>
       <c r="AN202" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO202" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ202" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="203" spans="1:43" x14ac:dyDescent="0.25">
@@ -27887,10 +27888,10 @@
         <v>7</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F203" s="2">
         <v>0</v>
@@ -27995,13 +27996,13 @@
         <v>0</v>
       </c>
       <c r="AN203" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO203" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ203" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:43" x14ac:dyDescent="0.25">
@@ -28015,10 +28016,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F204" s="2">
         <v>0</v>
@@ -28123,13 +28124,13 @@
         <v>0</v>
       </c>
       <c r="AN204" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO204" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ204" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205" spans="1:43" x14ac:dyDescent="0.25">
@@ -28143,10 +28144,10 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F205" s="2">
         <v>0</v>
@@ -28251,13 +28252,13 @@
         <v>0</v>
       </c>
       <c r="AN205" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO205" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ205" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206" spans="1:43" x14ac:dyDescent="0.25">
@@ -28271,10 +28272,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F206" s="2">
         <v>0</v>
@@ -28379,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="AN206" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO206" s="5">
         <v>-1</v>
       </c>
       <c r="AQ206" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:43" x14ac:dyDescent="0.25">
@@ -28399,10 +28400,10 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F207" s="2">
         <v>0</v>
@@ -28507,13 +28508,13 @@
         <v>0</v>
       </c>
       <c r="AN207" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO207" s="5">
         <v>-1</v>
       </c>
       <c r="AQ207" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:43" x14ac:dyDescent="0.25">
@@ -28527,10 +28528,10 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F208" s="2">
         <v>0</v>
@@ -28635,13 +28636,13 @@
         <v>0</v>
       </c>
       <c r="AN208" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO208" s="5">
         <v>-1</v>
       </c>
       <c r="AQ208" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:43" x14ac:dyDescent="0.25">
@@ -28655,10 +28656,10 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F209" s="2">
         <v>0</v>
@@ -28763,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="AN209" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO209" s="5">
         <v>-1</v>
       </c>
       <c r="AQ209" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:43" x14ac:dyDescent="0.25">
@@ -28783,10 +28784,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F210" s="2">
         <v>0</v>
@@ -28891,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="AN210" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO210" s="5">
         <v>-1</v>
       </c>
       <c r="AQ210" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:43" x14ac:dyDescent="0.25">
@@ -28911,10 +28912,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F211" s="2">
         <v>0</v>
@@ -29019,13 +29020,13 @@
         <v>0</v>
       </c>
       <c r="AN211" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO211" s="5">
         <v>-1</v>
       </c>
       <c r="AQ211" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" spans="1:43" x14ac:dyDescent="0.25">
@@ -29039,10 +29040,10 @@
         <v>6</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F212" s="2">
         <v>0</v>
@@ -29147,13 +29148,13 @@
         <v>0</v>
       </c>
       <c r="AN212" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO212" s="5">
         <v>-1</v>
       </c>
       <c r="AQ212" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="1:43" x14ac:dyDescent="0.25">
@@ -29167,10 +29168,10 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F213" s="2">
         <v>0</v>
@@ -29275,13 +29276,13 @@
         <v>0</v>
       </c>
       <c r="AN213" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO213" s="5">
         <v>-1</v>
       </c>
       <c r="AQ213" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="214" spans="1:43" x14ac:dyDescent="0.25">
@@ -29295,10 +29296,10 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F214" s="2">
         <v>0</v>
@@ -29403,13 +29404,13 @@
         <v>0</v>
       </c>
       <c r="AN214" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO214" s="5">
         <v>-1</v>
       </c>
       <c r="AQ214" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:43" x14ac:dyDescent="0.25">
@@ -29423,10 +29424,10 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F215" s="2">
         <v>0</v>
@@ -29531,13 +29532,13 @@
         <v>0</v>
       </c>
       <c r="AN215" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO215" s="5">
         <v>-1</v>
       </c>
       <c r="AQ215" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:43" x14ac:dyDescent="0.25">
@@ -29551,10 +29552,10 @@
         <v>4</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F216" s="2">
         <v>0</v>
@@ -29659,13 +29660,13 @@
         <v>0</v>
       </c>
       <c r="AN216" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO216" s="5">
         <v>-1</v>
       </c>
       <c r="AQ216" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="217" spans="1:43" x14ac:dyDescent="0.25">
@@ -29679,10 +29680,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F217" s="2">
         <v>0</v>
@@ -29787,13 +29788,13 @@
         <v>0</v>
       </c>
       <c r="AN217" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO217" s="5">
         <v>-1</v>
       </c>
       <c r="AQ217" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="1:43" x14ac:dyDescent="0.25">
@@ -29807,10 +29808,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F218" s="2">
         <v>0</v>
@@ -29915,13 +29916,13 @@
         <v>0</v>
       </c>
       <c r="AN218" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO218" s="5">
         <v>-1</v>
       </c>
       <c r="AQ218" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219" spans="1:43" x14ac:dyDescent="0.25">
@@ -29935,10 +29936,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F219" s="2">
         <v>0</v>
@@ -30043,13 +30044,13 @@
         <v>0</v>
       </c>
       <c r="AN219" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO219" s="5">
         <v>-1</v>
       </c>
       <c r="AQ219" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="220" spans="1:43" x14ac:dyDescent="0.25">
@@ -30063,10 +30064,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F220" s="2">
         <v>0</v>
@@ -30171,13 +30172,13 @@
         <v>0</v>
       </c>
       <c r="AN220" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO220" s="5">
         <v>-1</v>
       </c>
       <c r="AQ220" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="221" spans="1:43" x14ac:dyDescent="0.25">
@@ -30191,10 +30192,10 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F221" s="2">
         <v>0</v>
@@ -30299,13 +30300,13 @@
         <v>0</v>
       </c>
       <c r="AN221" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO221" s="5">
         <v>-1</v>
       </c>
       <c r="AQ221" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="222" spans="1:43" x14ac:dyDescent="0.25">
@@ -30319,10 +30320,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F222" s="2">
         <v>0</v>
@@ -30427,13 +30428,13 @@
         <v>0</v>
       </c>
       <c r="AN222" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO222" s="5">
         <v>-1</v>
       </c>
       <c r="AQ222" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="223" spans="1:43" x14ac:dyDescent="0.25">
@@ -30447,10 +30448,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F223" s="2">
         <v>0</v>
@@ -30555,13 +30556,13 @@
         <v>0</v>
       </c>
       <c r="AN223" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO223" s="5">
         <v>-1</v>
       </c>
       <c r="AQ223" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="224" spans="1:43" x14ac:dyDescent="0.25">
@@ -30575,10 +30576,10 @@
         <v>4</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F224" s="2">
         <v>0</v>
@@ -30683,13 +30684,13 @@
         <v>0</v>
       </c>
       <c r="AN224" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO224" s="5">
         <v>-1</v>
       </c>
       <c r="AQ224" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225" spans="1:43" x14ac:dyDescent="0.25">
@@ -30703,10 +30704,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F225" s="2">
         <v>0</v>
@@ -30811,13 +30812,13 @@
         <v>0</v>
       </c>
       <c r="AN225" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO225" s="5">
         <v>-1</v>
       </c>
       <c r="AQ225" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="226" spans="1:43" x14ac:dyDescent="0.25">
@@ -30831,10 +30832,10 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F226" s="2">
         <v>0</v>
@@ -30939,13 +30940,13 @@
         <v>0</v>
       </c>
       <c r="AN226" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AO226" s="5">
         <v>-1</v>
       </c>
       <c r="AQ226" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="227" spans="1:43" x14ac:dyDescent="0.25">
@@ -30959,10 +30960,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F227" s="2">
         <v>0</v>
@@ -31067,13 +31068,13 @@
         <v>0</v>
       </c>
       <c r="AN227" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AO227" s="5">
         <v>-1</v>
       </c>
       <c r="AQ227" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:43" x14ac:dyDescent="0.25">
@@ -31087,10 +31088,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F228" s="2">
         <v>0</v>
@@ -31195,13 +31196,13 @@
         <v>0</v>
       </c>
       <c r="AN228" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO228" s="5">
         <v>-1</v>
       </c>
       <c r="AQ228" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="229" spans="1:43" x14ac:dyDescent="0.25">
@@ -31215,10 +31216,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F229" s="2">
         <v>0</v>
@@ -31323,13 +31324,13 @@
         <v>0</v>
       </c>
       <c r="AN229" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO229" s="5">
         <v>-1</v>
       </c>
       <c r="AQ229" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="230" spans="1:43" x14ac:dyDescent="0.25">
@@ -31343,10 +31344,10 @@
         <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F230" s="2">
         <v>0</v>
@@ -31451,13 +31452,13 @@
         <v>0</v>
       </c>
       <c r="AN230" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AO230" s="5">
         <v>-1</v>
       </c>
       <c r="AQ230" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="231" spans="1:43" x14ac:dyDescent="0.25">
@@ -31471,10 +31472,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F231" s="2">
         <v>0</v>
@@ -31579,13 +31580,13 @@
         <v>0</v>
       </c>
       <c r="AN231" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AO231" s="5">
         <v>-1</v>
       </c>
       <c r="AQ231" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="232" spans="1:43" x14ac:dyDescent="0.25">
@@ -31599,10 +31600,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F232" s="2">
         <v>0</v>
@@ -31707,13 +31708,13 @@
         <v>0</v>
       </c>
       <c r="AN232" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AO232" s="5">
         <v>-1</v>
       </c>
       <c r="AQ232" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="233" spans="1:43" x14ac:dyDescent="0.25">
@@ -31727,10 +31728,10 @@
         <v>4</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F233" s="2">
         <v>0</v>
@@ -31835,13 +31836,13 @@
         <v>0</v>
       </c>
       <c r="AN233" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO233" s="5">
         <v>-1</v>
       </c>
       <c r="AQ233" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="234" spans="1:43" x14ac:dyDescent="0.25">
@@ -31855,10 +31856,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F234" s="2">
         <v>0</v>
@@ -31963,13 +31964,13 @@
         <v>0</v>
       </c>
       <c r="AN234" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO234" s="5">
         <v>-1</v>
       </c>
       <c r="AQ234" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="235" spans="1:43" x14ac:dyDescent="0.25">
@@ -31983,10 +31984,10 @@
         <v>4</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F235" s="2">
         <v>0</v>
@@ -32091,13 +32092,13 @@
         <v>0</v>
       </c>
       <c r="AN235" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO235" s="5">
         <v>-1</v>
       </c>
       <c r="AQ235" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="236" spans="1:43" x14ac:dyDescent="0.25">
@@ -32111,10 +32112,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F236" s="2">
         <v>0</v>
@@ -32219,13 +32220,13 @@
         <v>0</v>
       </c>
       <c r="AN236" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO236" s="5">
         <v>-1</v>
       </c>
       <c r="AQ236" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="237" spans="1:43" x14ac:dyDescent="0.25">
@@ -32239,10 +32240,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F237" s="2">
         <v>0</v>
@@ -32347,13 +32348,13 @@
         <v>0</v>
       </c>
       <c r="AN237" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO237" s="5">
         <v>-1</v>
       </c>
       <c r="AQ237" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="238" spans="1:43" x14ac:dyDescent="0.25">
@@ -32367,10 +32368,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F238" s="2">
         <v>0</v>
@@ -32475,13 +32476,13 @@
         <v>0</v>
       </c>
       <c r="AN238" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AO238" s="5">
         <v>-1</v>
       </c>
       <c r="AQ238" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="239" spans="1:43" x14ac:dyDescent="0.25">
@@ -32495,10 +32496,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F239" s="2">
         <v>0</v>
@@ -32603,13 +32604,13 @@
         <v>0</v>
       </c>
       <c r="AN239" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AO239" s="5">
         <v>-1</v>
       </c>
       <c r="AQ239" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="240" spans="1:43" x14ac:dyDescent="0.25">
@@ -32623,10 +32624,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F240" s="2">
         <v>0</v>
@@ -32731,13 +32732,13 @@
         <v>0</v>
       </c>
       <c r="AN240" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO240" s="5">
         <v>-1</v>
       </c>
       <c r="AQ240" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="241" spans="1:43" x14ac:dyDescent="0.25">
@@ -32751,10 +32752,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F241" s="2">
         <v>0</v>
@@ -32859,13 +32860,13 @@
         <v>0</v>
       </c>
       <c r="AN241" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO241" s="5">
         <v>-1</v>
       </c>
       <c r="AQ241" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:43" x14ac:dyDescent="0.25">
@@ -32879,10 +32880,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F242" s="2">
         <v>0</v>
@@ -32987,13 +32988,13 @@
         <v>0</v>
       </c>
       <c r="AN242" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO242" s="5">
         <v>-1</v>
       </c>
       <c r="AQ242" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:43" x14ac:dyDescent="0.25">
@@ -33007,10 +33008,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F243" s="2">
         <v>0</v>
@@ -33115,13 +33116,13 @@
         <v>0</v>
       </c>
       <c r="AN243" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AO243" s="5">
         <v>-1</v>
       </c>
       <c r="AQ243" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:43" x14ac:dyDescent="0.25">
@@ -33135,10 +33136,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F244" s="2">
         <v>0</v>
@@ -33243,13 +33244,13 @@
         <v>0</v>
       </c>
       <c r="AN244" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AO244" s="5">
         <v>-1</v>
       </c>
       <c r="AQ244" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:43" x14ac:dyDescent="0.25">
@@ -33263,10 +33264,10 @@
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F245" s="2">
         <v>0</v>
@@ -33371,13 +33372,13 @@
         <v>0</v>
       </c>
       <c r="AN245" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AO245" s="5">
         <v>-1</v>
       </c>
       <c r="AQ245" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="246" spans="1:43" x14ac:dyDescent="0.25">
@@ -33391,10 +33392,10 @@
         <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F246" s="2">
         <v>0</v>
@@ -33499,13 +33500,13 @@
         <v>0</v>
       </c>
       <c r="AN246" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AO246" s="5">
         <v>-1</v>
       </c>
       <c r="AQ246" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="247" spans="1:43" x14ac:dyDescent="0.25">
@@ -33519,10 +33520,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F247" s="2">
         <v>0</v>
@@ -33627,13 +33628,13 @@
         <v>0</v>
       </c>
       <c r="AN247" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AO247" s="5">
         <v>-1</v>
       </c>
       <c r="AQ247" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:43" x14ac:dyDescent="0.25">
@@ -33647,10 +33648,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F248" s="2">
         <v>0</v>
@@ -33755,13 +33756,13 @@
         <v>0</v>
       </c>
       <c r="AN248" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO248" s="5">
         <v>-1</v>
       </c>
       <c r="AQ248" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="1:43" x14ac:dyDescent="0.25">
@@ -33775,10 +33776,10 @@
         <v>3</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F249" s="2">
         <v>0</v>
@@ -33883,13 +33884,13 @@
         <v>0</v>
       </c>
       <c r="AN249" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO249" s="5">
         <v>-1</v>
       </c>
       <c r="AQ249" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:43" x14ac:dyDescent="0.25">
@@ -33903,10 +33904,10 @@
         <v>4</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F250" s="2">
         <v>0</v>
@@ -34011,13 +34012,13 @@
         <v>0</v>
       </c>
       <c r="AN250" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO250" s="5">
         <v>-1</v>
       </c>
       <c r="AQ250" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:43" x14ac:dyDescent="0.25">
@@ -34031,10 +34032,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F251" s="2">
         <v>0</v>
@@ -34139,13 +34140,13 @@
         <v>0</v>
       </c>
       <c r="AN251" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO251" s="5">
         <v>-1</v>
       </c>
       <c r="AQ251" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:43" x14ac:dyDescent="0.25">
@@ -34159,10 +34160,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F252" s="2">
         <v>0</v>
@@ -34267,13 +34268,13 @@
         <v>0</v>
       </c>
       <c r="AN252" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO252" s="5">
         <v>-1</v>
       </c>
       <c r="AQ252" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="253" spans="1:43" x14ac:dyDescent="0.25">
@@ -34287,10 +34288,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F253" s="2">
         <v>0</v>
@@ -34395,13 +34396,13 @@
         <v>0</v>
       </c>
       <c r="AN253" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO253" s="5">
         <v>-1</v>
       </c>
       <c r="AQ253" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="254" spans="1:43" x14ac:dyDescent="0.25">
@@ -34415,10 +34416,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F254" s="2">
         <v>0</v>
@@ -34523,13 +34524,13 @@
         <v>0</v>
       </c>
       <c r="AN254" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AO254" s="5">
         <v>-1</v>
       </c>
       <c r="AQ254" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:43" x14ac:dyDescent="0.25">
@@ -34543,10 +34544,10 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F255" s="2">
         <v>0</v>
@@ -34651,13 +34652,13 @@
         <v>0</v>
       </c>
       <c r="AN255" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AO255" s="5">
         <v>-1</v>
       </c>
       <c r="AQ255" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:43" x14ac:dyDescent="0.25">
@@ -34671,10 +34672,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F256" s="2">
         <v>0</v>
@@ -34779,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="AN256" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO256" s="5">
         <v>-1</v>
       </c>
       <c r="AQ256" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:43" x14ac:dyDescent="0.25">
@@ -34799,10 +34800,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F257" s="2">
         <v>0</v>
@@ -34907,13 +34908,13 @@
         <v>0</v>
       </c>
       <c r="AN257" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO257" s="5">
         <v>-1</v>
       </c>
       <c r="AQ257" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.25">
@@ -34927,10 +34928,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F258" s="2">
         <v>0</v>
@@ -35035,13 +35036,13 @@
         <v>0</v>
       </c>
       <c r="AN258" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AO258" s="5">
         <v>-1</v>
       </c>
       <c r="AQ258" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.25">
@@ -35055,10 +35056,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F259" s="2">
         <v>0</v>
@@ -35163,13 +35164,13 @@
         <v>0</v>
       </c>
       <c r="AN259" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AO259" s="5">
         <v>-1</v>
       </c>
       <c r="AQ259" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.25">
@@ -35183,10 +35184,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F260" s="2">
         <v>0</v>
@@ -35291,13 +35292,13 @@
         <v>0</v>
       </c>
       <c r="AN260" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AO260" s="5">
         <v>-1</v>
       </c>
       <c r="AQ260" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.25">
@@ -35311,10 +35312,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F261" s="2">
         <v>0</v>
@@ -35419,13 +35420,13 @@
         <v>0</v>
       </c>
       <c r="AN261" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AO261" s="5">
         <v>-1</v>
       </c>
       <c r="AQ261" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.25">
@@ -35439,10 +35440,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F262" s="2">
         <v>0</v>
@@ -35547,13 +35548,13 @@
         <v>0</v>
       </c>
       <c r="AN262" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO262" s="5">
         <v>-1</v>
       </c>
       <c r="AQ262" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.25">
@@ -35567,10 +35568,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F263" s="2">
         <v>0</v>
@@ -35675,13 +35676,13 @@
         <v>0</v>
       </c>
       <c r="AN263" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO263" s="5">
         <v>-1</v>
       </c>
       <c r="AQ263" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.25">
@@ -35695,10 +35696,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F264" s="2">
         <v>0</v>
@@ -35803,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="AN264" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AO264" s="5">
         <v>-1</v>
       </c>
       <c r="AQ264" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.25">
@@ -35823,10 +35824,10 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F265" s="2">
         <v>0</v>
@@ -35931,13 +35932,13 @@
         <v>0</v>
       </c>
       <c r="AN265" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AO265" s="5">
         <v>-1</v>
       </c>
       <c r="AQ265" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.25">
@@ -35951,10 +35952,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F266" s="2">
         <v>0</v>
@@ -36059,13 +36060,13 @@
         <v>0</v>
       </c>
       <c r="AN266" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AO266" s="5">
         <v>-1</v>
       </c>
       <c r="AQ266" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.25">
@@ -36079,10 +36080,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F267" s="2">
         <v>0</v>
@@ -36187,13 +36188,13 @@
         <v>0</v>
       </c>
       <c r="AN267" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AO267" s="5">
         <v>-1</v>
       </c>
       <c r="AQ267" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.25">
@@ -36207,10 +36208,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F268" s="2">
         <v>0</v>
@@ -36315,13 +36316,13 @@
         <v>0</v>
       </c>
       <c r="AN268" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AO268" s="5">
         <v>-1</v>
       </c>
       <c r="AQ268" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.25">
@@ -36335,10 +36336,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F269" s="2">
         <v>0</v>
@@ -36443,13 +36444,13 @@
         <v>0</v>
       </c>
       <c r="AN269" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AO269" s="5">
         <v>-1</v>
       </c>
       <c r="AQ269" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.25">
@@ -36463,10 +36464,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F270" s="2">
         <v>0</v>
@@ -36571,13 +36572,13 @@
         <v>0</v>
       </c>
       <c r="AN270" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AO270" s="5">
         <v>-1</v>
       </c>
       <c r="AQ270" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.25">
@@ -36591,10 +36592,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F271" s="2">
         <v>0</v>
@@ -36699,13 +36700,13 @@
         <v>0</v>
       </c>
       <c r="AN271" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AO271" s="5">
         <v>-1</v>
       </c>
       <c r="AQ271" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.25">
@@ -36719,10 +36720,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F272" s="2">
         <v>0</v>
@@ -36827,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="AN272" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AO272" s="5">
         <v>-1</v>
       </c>
       <c r="AQ272" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="273" spans="1:43" x14ac:dyDescent="0.25">
@@ -36847,10 +36848,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F273" s="2">
         <v>0</v>
@@ -36955,13 +36956,13 @@
         <v>0</v>
       </c>
       <c r="AN273" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AO273" s="5">
         <v>-1</v>
       </c>
       <c r="AQ273" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="274" spans="1:43" x14ac:dyDescent="0.25">
@@ -36975,10 +36976,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F274" s="2">
         <v>0</v>
@@ -37083,13 +37084,13 @@
         <v>0</v>
       </c>
       <c r="AN274" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO274" s="5">
         <v>-1</v>
       </c>
       <c r="AQ274" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="275" spans="1:43" x14ac:dyDescent="0.25">
@@ -37103,10 +37104,10 @@
         <v>5</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F275" s="2">
         <v>0</v>
@@ -37211,13 +37212,13 @@
         <v>0</v>
       </c>
       <c r="AN275" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO275" s="5">
         <v>-1</v>
       </c>
       <c r="AQ275" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="276" spans="1:43" x14ac:dyDescent="0.25">
@@ -37231,10 +37232,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F276" s="2">
         <v>0</v>
@@ -37339,13 +37340,13 @@
         <v>0</v>
       </c>
       <c r="AN276" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AO276" s="5">
         <v>-1</v>
       </c>
       <c r="AQ276" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:43" x14ac:dyDescent="0.25">
@@ -37359,10 +37360,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F277" s="2">
         <v>0</v>
@@ -37467,13 +37468,13 @@
         <v>0</v>
       </c>
       <c r="AN277" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AO277" s="5">
         <v>-1</v>
       </c>
       <c r="AQ277" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:43" x14ac:dyDescent="0.25">
@@ -37487,10 +37488,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F278" s="2">
         <v>0</v>
@@ -37595,13 +37596,13 @@
         <v>0</v>
       </c>
       <c r="AN278" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AO278" s="5">
         <v>-1</v>
       </c>
       <c r="AQ278" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:43" x14ac:dyDescent="0.25">
@@ -37615,10 +37616,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F279" s="2">
         <v>0</v>
@@ -37723,13 +37724,13 @@
         <v>0</v>
       </c>
       <c r="AN279" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AO279" s="5">
         <v>-1</v>
       </c>
       <c r="AQ279" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="1:43" x14ac:dyDescent="0.25">
@@ -37743,10 +37744,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F280" s="2">
         <v>0</v>
@@ -37851,13 +37852,13 @@
         <v>0</v>
       </c>
       <c r="AN280" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AO280" s="5">
         <v>-1</v>
       </c>
       <c r="AQ280" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:43" x14ac:dyDescent="0.25">
@@ -37871,10 +37872,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F281" s="2">
         <v>0</v>
@@ -37979,13 +37980,13 @@
         <v>0</v>
       </c>
       <c r="AN281" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AO281" s="5">
         <v>-1</v>
       </c>
       <c r="AQ281" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="1:43" x14ac:dyDescent="0.25">
@@ -37999,10 +38000,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F282" s="2">
         <v>0</v>
@@ -38107,13 +38108,13 @@
         <v>0</v>
       </c>
       <c r="AN282" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AO282" s="5">
         <v>-1</v>
       </c>
       <c r="AQ282" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="1:43" x14ac:dyDescent="0.25">
@@ -38127,10 +38128,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F283" s="2">
         <v>0</v>
@@ -38235,13 +38236,13 @@
         <v>0</v>
       </c>
       <c r="AN283" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AO283" s="5">
         <v>-1</v>
       </c>
       <c r="AQ283" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:43" x14ac:dyDescent="0.25">
@@ -38255,10 +38256,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F284" s="2">
         <v>0</v>
@@ -38363,13 +38364,13 @@
         <v>0</v>
       </c>
       <c r="AN284" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO284" s="5">
         <v>-1</v>
       </c>
       <c r="AQ284" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="285" spans="1:43" x14ac:dyDescent="0.25">
@@ -38383,10 +38384,10 @@
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F285" s="2">
         <v>0</v>
@@ -38491,13 +38492,13 @@
         <v>0</v>
       </c>
       <c r="AN285" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO285" s="5">
         <v>-1</v>
       </c>
       <c r="AQ285" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:43" x14ac:dyDescent="0.25">
@@ -38511,10 +38512,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F286" s="2">
         <v>0</v>
@@ -38619,13 +38620,13 @@
         <v>0</v>
       </c>
       <c r="AN286" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AO286" s="5">
         <v>-1</v>
       </c>
       <c r="AQ286" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="287" spans="1:43" x14ac:dyDescent="0.25">
@@ -38639,10 +38640,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F287" s="2">
         <v>0</v>
@@ -38747,13 +38748,13 @@
         <v>0</v>
       </c>
       <c r="AN287" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AO287" s="5">
         <v>-1</v>
       </c>
       <c r="AQ287" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="288" spans="1:43" x14ac:dyDescent="0.25">
@@ -38767,10 +38768,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F288" s="2">
         <v>0</v>
@@ -38875,13 +38876,13 @@
         <v>0</v>
       </c>
       <c r="AN288" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AO288" s="5">
         <v>-1</v>
       </c>
       <c r="AQ288" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="1:43" x14ac:dyDescent="0.25">
@@ -38895,10 +38896,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F289" s="2">
         <v>0</v>
@@ -39003,13 +39004,13 @@
         <v>0</v>
       </c>
       <c r="AN289" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AO289" s="5">
         <v>-1</v>
       </c>
       <c r="AQ289" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="290" spans="1:43" x14ac:dyDescent="0.25">
@@ -39023,10 +39024,10 @@
         <v>5</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F290" s="2">
         <v>0</v>
@@ -39131,13 +39132,13 @@
         <v>0</v>
       </c>
       <c r="AN290" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO290" s="5">
         <v>-1</v>
       </c>
       <c r="AQ290" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="291" spans="1:43" x14ac:dyDescent="0.25">
@@ -39151,10 +39152,10 @@
         <v>6</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F291" s="2">
         <v>0</v>
@@ -39259,13 +39260,13 @@
         <v>0</v>
       </c>
       <c r="AN291" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO291" s="5">
         <v>-1</v>
       </c>
       <c r="AQ291" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="292" spans="1:43" x14ac:dyDescent="0.25">
@@ -39279,10 +39280,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F292" s="2">
         <v>0</v>
@@ -39387,13 +39388,13 @@
         <v>0</v>
       </c>
       <c r="AN292" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO292" s="5">
         <v>-1</v>
       </c>
       <c r="AQ292" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="293" spans="1:43" x14ac:dyDescent="0.25">
@@ -39407,10 +39408,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F293" s="2">
         <v>0</v>
@@ -39515,13 +39516,13 @@
         <v>0</v>
       </c>
       <c r="AN293" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO293" s="5">
         <v>-1</v>
       </c>
       <c r="AQ293" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="294" spans="1:43" x14ac:dyDescent="0.25">
@@ -39535,10 +39536,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F294" s="2">
         <v>0</v>
@@ -39643,13 +39644,13 @@
         <v>0</v>
       </c>
       <c r="AN294" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO294" s="5">
         <v>-1</v>
       </c>
       <c r="AQ294" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="295" spans="1:43" x14ac:dyDescent="0.25">
@@ -39663,10 +39664,10 @@
         <v>7</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F295" s="2">
         <v>0</v>
@@ -39771,13 +39772,13 @@
         <v>0</v>
       </c>
       <c r="AN295" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO295" s="5">
         <v>-1</v>
       </c>
       <c r="AQ295" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="296" spans="1:43" x14ac:dyDescent="0.25">
@@ -39791,10 +39792,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F296" s="2">
         <v>0</v>
@@ -39899,13 +39900,13 @@
         <v>0</v>
       </c>
       <c r="AN296" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO296" s="5">
         <v>-1</v>
       </c>
       <c r="AQ296" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="297" spans="1:43" x14ac:dyDescent="0.25">
@@ -39919,10 +39920,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F297" s="2">
         <v>0</v>
@@ -40027,13 +40028,13 @@
         <v>0</v>
       </c>
       <c r="AN297" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AO297" s="5">
         <v>-1</v>
       </c>
       <c r="AQ297" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="298" spans="1:43" x14ac:dyDescent="0.25">
@@ -40047,10 +40048,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F298" s="2">
         <v>0</v>
@@ -40155,13 +40156,13 @@
         <v>0</v>
       </c>
       <c r="AN298" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO298" s="5">
         <v>-1</v>
       </c>
       <c r="AQ298" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="299" spans="1:43" x14ac:dyDescent="0.25">
@@ -40175,10 +40176,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F299" s="2">
         <v>0</v>
@@ -40283,13 +40284,13 @@
         <v>0</v>
       </c>
       <c r="AN299" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO299" s="5">
         <v>-1</v>
       </c>
       <c r="AQ299" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="300" spans="1:43" x14ac:dyDescent="0.25">
@@ -40303,10 +40304,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F300" s="2">
         <v>0</v>
@@ -40411,13 +40412,13 @@
         <v>0</v>
       </c>
       <c r="AN300" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO300" s="5">
         <v>-1</v>
       </c>
       <c r="AQ300" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="301" spans="1:43" x14ac:dyDescent="0.25">
@@ -40431,10 +40432,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F301" s="2">
         <v>0</v>
@@ -40539,13 +40540,13 @@
         <v>0</v>
       </c>
       <c r="AN301" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO301" s="5">
         <v>-1</v>
       </c>
       <c r="AQ301" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="302" spans="1:43" x14ac:dyDescent="0.25">
@@ -40559,10 +40560,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F302" s="2">
         <v>0</v>
@@ -40667,13 +40668,13 @@
         <v>0</v>
       </c>
       <c r="AN302" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AO302" s="5">
         <v>-1</v>
       </c>
       <c r="AQ302" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="303" spans="1:43" x14ac:dyDescent="0.25">
@@ -40687,10 +40688,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F303" s="2">
         <v>0</v>
@@ -40795,13 +40796,13 @@
         <v>0</v>
       </c>
       <c r="AN303" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AO303" s="5">
         <v>-1</v>
       </c>
       <c r="AQ303" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="304" spans="1:43" x14ac:dyDescent="0.25">
@@ -40815,10 +40816,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F304" s="2">
         <v>0</v>
@@ -40923,13 +40924,13 @@
         <v>0</v>
       </c>
       <c r="AN304" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO304" s="5">
         <v>-1</v>
       </c>
       <c r="AQ304" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="305" spans="1:43" x14ac:dyDescent="0.25">
@@ -40943,10 +40944,10 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F305" s="2">
         <v>0</v>
@@ -41051,13 +41052,13 @@
         <v>0</v>
       </c>
       <c r="AN305" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO305" s="5">
         <v>-1</v>
       </c>
       <c r="AQ305" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="306" spans="1:43" x14ac:dyDescent="0.25">
@@ -41071,10 +41072,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F306" s="2">
         <v>0</v>
@@ -41179,13 +41180,13 @@
         <v>0</v>
       </c>
       <c r="AN306" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AO306" s="5">
         <v>-1</v>
       </c>
       <c r="AQ306" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="307" spans="1:43" x14ac:dyDescent="0.25">
@@ -41199,10 +41200,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F307" s="2">
         <v>0</v>
@@ -41307,13 +41308,13 @@
         <v>0</v>
       </c>
       <c r="AN307" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AO307" s="5">
         <v>-1</v>
       </c>
       <c r="AQ307" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="308" spans="1:43" x14ac:dyDescent="0.25">
@@ -41327,10 +41328,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F308" s="2">
         <v>0</v>
@@ -41435,13 +41436,13 @@
         <v>0</v>
       </c>
       <c r="AN308" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AO308" s="5">
         <v>-1</v>
       </c>
       <c r="AQ308" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="309" spans="1:43" x14ac:dyDescent="0.25">
@@ -41455,10 +41456,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F309" s="2">
         <v>0</v>
@@ -41563,13 +41564,13 @@
         <v>0</v>
       </c>
       <c r="AN309" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AO309" s="5">
         <v>-1</v>
       </c>
       <c r="AQ309" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="310" spans="1:43" x14ac:dyDescent="0.25">
@@ -41583,10 +41584,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F310" s="2">
         <v>0</v>
@@ -41691,13 +41692,13 @@
         <v>0</v>
       </c>
       <c r="AN310" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AO310" s="5">
         <v>-1</v>
       </c>
       <c r="AQ310" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="311" spans="1:43" x14ac:dyDescent="0.25">
@@ -41711,10 +41712,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F311" s="2">
         <v>0</v>
@@ -41819,13 +41820,13 @@
         <v>0</v>
       </c>
       <c r="AN311" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AO311" s="5">
         <v>-1</v>
       </c>
       <c r="AQ311" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="312" spans="1:43" x14ac:dyDescent="0.25">
@@ -41839,10 +41840,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F312" s="2">
         <v>0</v>
@@ -41947,13 +41948,13 @@
         <v>0</v>
       </c>
       <c r="AN312" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AO312" s="5">
         <v>-1</v>
       </c>
       <c r="AQ312" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="313" spans="1:43" x14ac:dyDescent="0.25">
@@ -41967,10 +41968,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F313" s="2">
         <v>0</v>
@@ -42075,13 +42076,13 @@
         <v>0</v>
       </c>
       <c r="AN313" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AO313" s="5">
         <v>-1</v>
       </c>
       <c r="AQ313" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="314" spans="1:43" x14ac:dyDescent="0.25">
@@ -42095,10 +42096,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F314" s="2">
         <v>0</v>
@@ -42203,13 +42204,13 @@
         <v>0</v>
       </c>
       <c r="AN314" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO314" s="5">
         <v>-1</v>
       </c>
       <c r="AQ314" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="315" spans="1:43" x14ac:dyDescent="0.25">
@@ -42223,10 +42224,10 @@
         <v>7</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F315" s="2">
         <v>0</v>
@@ -42331,13 +42332,13 @@
         <v>0</v>
       </c>
       <c r="AN315" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO315" s="5">
         <v>-1</v>
       </c>
       <c r="AQ315" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="316" spans="1:43" x14ac:dyDescent="0.25">
@@ -42351,10 +42352,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F316" s="2">
         <v>0</v>
@@ -42459,13 +42460,13 @@
         <v>0</v>
       </c>
       <c r="AN316" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO316" s="5">
         <v>-1</v>
       </c>
       <c r="AQ316" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="317" spans="1:43" x14ac:dyDescent="0.25">
@@ -42479,10 +42480,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F317" s="2">
         <v>0</v>
@@ -42587,13 +42588,13 @@
         <v>0</v>
       </c>
       <c r="AN317" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO317" s="5">
         <v>-1</v>
       </c>
       <c r="AQ317" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="318" spans="1:43" x14ac:dyDescent="0.25">
@@ -42607,10 +42608,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F318" s="2">
         <v>0</v>
@@ -42715,13 +42716,13 @@
         <v>0</v>
       </c>
       <c r="AN318" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO318" s="5">
         <v>-1</v>
       </c>
       <c r="AQ318" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="319" spans="1:43" x14ac:dyDescent="0.25">
@@ -42735,10 +42736,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F319" s="2">
         <v>0</v>
@@ -42843,13 +42844,13 @@
         <v>0</v>
       </c>
       <c r="AN319" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO319" s="5">
         <v>-1</v>
       </c>
       <c r="AQ319" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="320" spans="1:43" x14ac:dyDescent="0.25">
@@ -42863,10 +42864,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F320" s="2">
         <v>0</v>
@@ -42971,13 +42972,13 @@
         <v>0</v>
       </c>
       <c r="AN320" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO320" s="5">
         <v>-1</v>
       </c>
       <c r="AQ320" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="321" spans="1:43" x14ac:dyDescent="0.25">
@@ -42991,10 +42992,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F321" s="2">
         <v>0</v>
@@ -43099,13 +43100,13 @@
         <v>0</v>
       </c>
       <c r="AN321" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO321" s="5">
         <v>-1</v>
       </c>
       <c r="AQ321" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="322" spans="1:43" x14ac:dyDescent="0.25">
@@ -43119,10 +43120,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F322" s="2">
         <v>0</v>
@@ -43227,13 +43228,13 @@
         <v>0</v>
       </c>
       <c r="AN322" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO322" s="5">
         <v>-1</v>
       </c>
       <c r="AQ322" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="323" spans="1:43" x14ac:dyDescent="0.25">
@@ -43247,10 +43248,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F323" s="2">
         <v>0</v>
@@ -43355,13 +43356,13 @@
         <v>0</v>
       </c>
       <c r="AN323" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO323" s="5">
         <v>-1</v>
       </c>
       <c r="AQ323" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="324" spans="1:43" x14ac:dyDescent="0.25">
@@ -43375,10 +43376,10 @@
         <v>6</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F324" s="2">
         <v>0</v>
@@ -43483,13 +43484,13 @@
         <v>0</v>
       </c>
       <c r="AN324" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO324" s="5">
         <v>-1</v>
       </c>
       <c r="AQ324" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
